--- a/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Question_Unit-Test-Case.xlsx
+++ b/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Question_Unit-Test-Case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -60,10 +60,10 @@
     <definedName name="getLessonVersion" localSheetId="9">#REF!</definedName>
     <definedName name="getLessonVersion">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">deleteQuestion!$A$1:$T$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">findAllQuestion!$A$1:$T$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">findAllQuestion!$A$1:$T$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">findQuestionByCode!$A$1:$T$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">findQuestionById!$A$1:$T$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">generateTest!$A$1:$T$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">generateTest!$A$1:$T$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">saveQuestion!$A$1:$T$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">updateQuestion!$A$1:$T$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ガイドライン!$A$1:$A$48</definedName>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="167">
   <si>
     <r>
       <rPr>
@@ -1370,12 +1370,6 @@
     <t>List&lt;QuestionModel&gt;</t>
   </si>
   <si>
-    <t>examSkill</t>
-  </si>
-  <si>
-    <t>questionNumber</t>
-  </si>
-  <si>
     <t>QuestionModel</t>
   </si>
   <si>
@@ -1397,9 +1391,6 @@
     <t>Question has been added</t>
   </si>
   <si>
-    <t>No question has been added</t>
-  </si>
-  <si>
     <t xml:space="preserve"> singular question</t>
   </si>
   <si>
@@ -1427,67 +1418,16 @@
     <t>UTCID08</t>
   </si>
   <si>
-    <t>UTCID09</t>
-  </si>
-  <si>
-    <t>UTCID10</t>
-  </si>
-  <si>
-    <t>UTCID11</t>
-  </si>
-  <si>
-    <t>UTCID12</t>
-  </si>
-  <si>
     <t>Exception</t>
   </si>
   <si>
     <t>exception</t>
   </si>
   <si>
-    <t>UTCID13</t>
-  </si>
-  <si>
-    <t>UTCID14</t>
-  </si>
-  <si>
-    <t>UTCID15</t>
-  </si>
-  <si>
-    <t>UTCID16</t>
-  </si>
-  <si>
-    <t>UTCID17</t>
-  </si>
-  <si>
-    <t>UTCID18</t>
-  </si>
-  <si>
-    <t>UTCID19</t>
-  </si>
-  <si>
-    <t>UTCID20</t>
-  </si>
-  <si>
-    <t>UTCID21</t>
-  </si>
-  <si>
-    <t>UTCID22</t>
-  </si>
-  <si>
-    <t>UTCID23</t>
-  </si>
-  <si>
-    <t>UTCID24</t>
-  </si>
-  <si>
-    <t>UTCID25</t>
-  </si>
-  <si>
-    <t>UTCID26</t>
-  </si>
-  <si>
-    <t>UTCID27</t>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>numberOfQuestion</t>
   </si>
 </sst>
 </file>
@@ -3142,7 +3082,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -3620,6 +3560,17 @@
     <xf numFmtId="14" fontId="44" fillId="29" borderId="16" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="49" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="50" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="42" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3696,6 +3647,93 @@
     <xf numFmtId="14" fontId="44" fillId="24" borderId="11" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="37" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="58" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="45" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="58" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="60" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="73" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3717,12 +3755,6 @@
     <xf numFmtId="49" fontId="38" fillId="30" borderId="76" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3732,104 +3764,15 @@
     <xf numFmtId="0" fontId="38" fillId="30" borderId="63" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="58" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="60" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="65" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="58" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="45" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="37" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="49" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="50" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -4084,10 +4027,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4508,10 +4451,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4792,7 +4735,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5220,7 +5163,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6087,55 +6030,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="242" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="210" t="s">
+      <c r="B2" s="243"/>
+      <c r="C2" s="244" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="F2" s="209" t="s">
+      <c r="D2" s="245"/>
+      <c r="F2" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="212" t="s">
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="246" t="s">
         <v>142</v>
       </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
+      <c r="T2" s="248"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
+      <c r="B3" s="233"/>
+      <c r="C3" s="249" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
+      <c r="D3" s="250"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -6144,116 +6087,116 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="223">
+      <c r="B4" s="233"/>
+      <c r="C4" s="234">
         <v>300</v>
       </c>
-      <c r="D4" s="224"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="236" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="225">
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="239">
         <v>28</v>
       </c>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
+      <c r="R4" s="240"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="241"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="232" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="228" t="s">
+      <c r="B5" s="233"/>
+      <c r="C5" s="252" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="228"/>
-      <c r="S5" s="228"/>
-      <c r="T5" s="228"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="252"/>
+      <c r="P5" s="252"/>
+      <c r="Q5" s="252"/>
+      <c r="R5" s="252"/>
+      <c r="S5" s="252"/>
+      <c r="T5" s="252"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="246" t="s">
+      <c r="A6" s="217" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="247"/>
-      <c r="C6" s="230" t="s">
+      <c r="B6" s="218"/>
+      <c r="C6" s="219" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="231"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="230" t="s">
+      <c r="D6" s="220"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="232"/>
-      <c r="L6" s="231" t="s">
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="220" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="233" t="s">
+      <c r="M6" s="220"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="231"/>
-      <c r="S6" s="231"/>
-      <c r="T6" s="234"/>
+      <c r="P6" s="220"/>
+      <c r="Q6" s="220"/>
+      <c r="R6" s="220"/>
+      <c r="S6" s="220"/>
+      <c r="T6" s="224"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235">
+      <c r="A7" s="225">
         <f>COUNTIF(F19:HD19,"P")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="237">
+      <c r="B7" s="226"/>
+      <c r="C7" s="227">
         <f>COUNTIF(F19:HD19,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="237">
+      <c r="D7" s="228"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="227">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="239"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="229"/>
       <c r="L7" s="90">
         <f>COUNTIF(E18:HD18,"N")</f>
         <v>2</v>
@@ -6266,15 +6209,15 @@
         <f>COUNTIF(E18:HD18,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="240">
+      <c r="O7" s="230">
         <f>COUNTA(E9:HG9)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="238"/>
-      <c r="Q7" s="238"/>
-      <c r="R7" s="238"/>
-      <c r="S7" s="238"/>
-      <c r="T7" s="241"/>
+      <c r="P7" s="228"/>
+      <c r="Q7" s="228"/>
+      <c r="R7" s="228"/>
+      <c r="S7" s="228"/>
+      <c r="T7" s="231"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -6312,7 +6255,7 @@
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
@@ -6340,7 +6283,7 @@
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" s="96"/>
       <c r="D14" s="97"/>
@@ -6353,7 +6296,7 @@
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99" t="s">
@@ -6367,7 +6310,7 @@
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="176" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E16" s="103"/>
       <c r="F16" s="99"/>
@@ -6389,11 +6332,11 @@
       <c r="A18" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="242" t="s">
+      <c r="B18" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="213"/>
       <c r="E18" s="175"/>
       <c r="F18" s="124" t="s">
         <v>39</v>
@@ -6404,11 +6347,11 @@
     </row>
     <row r="19" spans="1:8" ht="13.5" customHeight="1">
       <c r="A19" s="139"/>
-      <c r="B19" s="243" t="s">
+      <c r="B19" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="125"/>
       <c r="F19" s="126" t="s">
         <v>43</v>
@@ -6419,11 +6362,11 @@
     </row>
     <row r="20" spans="1:8" ht="13.5" customHeight="1">
       <c r="A20" s="139"/>
-      <c r="B20" s="244" t="s">
+      <c r="B20" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="244"/>
-      <c r="D20" s="244"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="215"/>
       <c r="E20" s="118"/>
       <c r="F20" s="127">
         <v>39139</v>
@@ -6434,11 +6377,11 @@
     </row>
     <row r="21" spans="1:8" ht="11.25" thickBot="1">
       <c r="A21" s="140"/>
-      <c r="B21" s="245" t="s">
+      <c r="B21" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="245"/>
-      <c r="D21" s="245"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="216"/>
       <c r="E21" s="128"/>
       <c r="F21" s="129"/>
       <c r="G21" s="129"/>
@@ -6451,25 +6394,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -6478,6 +6402,25 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:G18">
@@ -6503,7 +6446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -6528,55 +6471,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="242" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="210" t="s">
+      <c r="B2" s="243"/>
+      <c r="C2" s="244" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="F2" s="209" t="s">
+      <c r="D2" s="245"/>
+      <c r="F2" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="212" t="s">
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="246" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
+      <c r="T2" s="248"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
+      <c r="B3" s="233"/>
+      <c r="C3" s="249" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
+      <c r="D3" s="250"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -6585,116 +6528,116 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="223">
+      <c r="B4" s="233"/>
+      <c r="C4" s="234">
         <v>300</v>
       </c>
-      <c r="D4" s="224"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="236" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="225">
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="239">
         <v>29</v>
       </c>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
+      <c r="R4" s="240"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="241"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="232" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="228" t="s">
+      <c r="B5" s="233"/>
+      <c r="C5" s="252" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="228"/>
-      <c r="S5" s="228"/>
-      <c r="T5" s="228"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="252"/>
+      <c r="P5" s="252"/>
+      <c r="Q5" s="252"/>
+      <c r="R5" s="252"/>
+      <c r="S5" s="252"/>
+      <c r="T5" s="252"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="246" t="s">
+      <c r="A6" s="217" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="247"/>
-      <c r="C6" s="230" t="s">
+      <c r="B6" s="218"/>
+      <c r="C6" s="219" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="231"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="230" t="s">
+      <c r="D6" s="220"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="232"/>
-      <c r="L6" s="231" t="s">
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="220" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="233" t="s">
+      <c r="M6" s="220"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="231"/>
-      <c r="S6" s="231"/>
-      <c r="T6" s="234"/>
+      <c r="P6" s="220"/>
+      <c r="Q6" s="220"/>
+      <c r="R6" s="220"/>
+      <c r="S6" s="220"/>
+      <c r="T6" s="224"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235">
+      <c r="A7" s="225">
         <f>COUNTIF(F18:HC18,"P")</f>
         <v>1</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="237">
+      <c r="B7" s="226"/>
+      <c r="C7" s="227">
         <f>COUNTIF(F18:HC18,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="237">
+      <c r="D7" s="228"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="227">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="239"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="229"/>
       <c r="L7" s="90">
         <f>COUNTIF(E17:HC17,"N")</f>
         <v>1</v>
@@ -6707,15 +6650,15 @@
         <f>COUNTIF(E17:HC17,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="240">
+      <c r="O7" s="230">
         <f>COUNTA(E9:HF9)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="238"/>
-      <c r="Q7" s="238"/>
-      <c r="R7" s="238"/>
-      <c r="S7" s="238"/>
-      <c r="T7" s="241"/>
+      <c r="P7" s="228"/>
+      <c r="Q7" s="228"/>
+      <c r="R7" s="228"/>
+      <c r="S7" s="228"/>
+      <c r="T7" s="231"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -6749,7 +6692,7 @@
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
@@ -6774,7 +6717,7 @@
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" s="96"/>
       <c r="D14" s="97"/>
@@ -6786,7 +6729,7 @@
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99" t="s">
@@ -6806,11 +6749,11 @@
       <c r="A17" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="242" t="s">
+      <c r="B17" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="242"/>
-      <c r="D17" s="242"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
       <c r="E17" s="175"/>
       <c r="F17" s="124" t="s">
         <v>39</v>
@@ -6818,11 +6761,11 @@
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
       <c r="A18" s="139"/>
-      <c r="B18" s="243" t="s">
+      <c r="B18" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
       <c r="E18" s="125"/>
       <c r="F18" s="126" t="s">
         <v>43</v>
@@ -6830,11 +6773,11 @@
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1">
       <c r="A19" s="139"/>
-      <c r="B19" s="244" t="s">
+      <c r="B19" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="244"/>
-      <c r="D19" s="244"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
       <c r="E19" s="118"/>
       <c r="F19" s="127">
         <v>39139</v>
@@ -6842,11 +6785,11 @@
     </row>
     <row r="20" spans="1:6" ht="11.25" thickBot="1">
       <c r="A20" s="140"/>
-      <c r="B20" s="245" t="s">
+      <c r="B20" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="245"/>
-      <c r="D20" s="245"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="216"/>
       <c r="E20" s="128"/>
       <c r="F20" s="129"/>
     </row>
@@ -6858,25 +6801,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -6885,6 +6809,25 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F16">
@@ -6927,13 +6870,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="142" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="141"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="143"/>
@@ -6944,11 +6887,11 @@
       <c r="A4" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="188" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
       <c r="E4" s="148" t="s">
         <v>2</v>
       </c>
@@ -6960,25 +6903,25 @@
       <c r="A5" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
       <c r="E5" s="147" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="149"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
       <c r="E6" s="148" t="s">
         <v>6</v>
       </c>
@@ -6987,10 +6930,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="185"/>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
+      <c r="A7" s="190"/>
+      <c r="B7" s="191"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
       <c r="E7" s="148" t="s">
         <v>7</v>
       </c>
@@ -7162,40 +7105,40 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="188"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189" t="s">
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="191"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="196"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="188"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="189" t="s">
+      <c r="B5" s="193"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="194" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="191"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="196"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="200" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="197"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="79">
         <v>100</v>
       </c>
@@ -7204,18 +7147,18 @@
       <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="192" t="s">
+      <c r="B7" s="192"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="197" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="194"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="199"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -7493,17 +7436,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="204" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="35"/>
@@ -7520,72 +7463,72 @@
       <c r="A4" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="200" t="str">
+      <c r="B4" s="205" t="str">
         <f>表紙!B4</f>
         <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
       </c>
-      <c r="C4" s="200"/>
-      <c r="D4" s="201" t="s">
+      <c r="C4" s="205"/>
+      <c r="D4" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="201"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="204"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="209"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="200" t="str">
+      <c r="B5" s="205" t="str">
         <f>表紙!B5</f>
         <v>Veazy</v>
       </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="201" t="s">
+      <c r="C5" s="205"/>
+      <c r="D5" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="201"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="209"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="200" t="str">
+      <c r="B6" s="205" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>Veazy_Test Report_v1.0</v>
       </c>
-      <c r="C6" s="200"/>
-      <c r="D6" s="201" t="s">
+      <c r="C6" s="205"/>
+      <c r="D6" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="201"/>
-      <c r="F6" s="205">
+      <c r="E6" s="206"/>
+      <c r="F6" s="210">
         <v>42585</v>
       </c>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="207"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="212"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="203" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="203"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="38"/>
@@ -7658,7 +7601,7 @@
       </c>
       <c r="C12" s="47">
         <f>generateTest!A6</f>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D12" s="47">
         <f>generateTest!C6</f>
@@ -7674,7 +7617,7 @@
       </c>
       <c r="G12" s="47">
         <f>generateTest!M6</f>
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H12" s="47">
         <f>generateTest!N6</f>
@@ -7682,7 +7625,7 @@
       </c>
       <c r="I12" s="47">
         <f>generateTest!O6</f>
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7802,7 +7745,7 @@
       </c>
       <c r="C16" s="47">
         <f>findAllQuestion!A7</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="47">
         <f>findAllQuestion!C7</f>
@@ -7814,7 +7757,7 @@
       </c>
       <c r="F16" s="47">
         <f>findAllQuestion!L7</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="47">
         <f>findAllQuestion!M7</f>
@@ -7826,7 +7769,7 @@
       </c>
       <c r="I16" s="47">
         <f>findAllQuestion!O7</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -7930,7 +7873,7 @@
       </c>
       <c r="C21" s="50">
         <f t="shared" ref="C21:I21" si="0">SUM(C10:C20)</f>
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D21" s="50">
         <f t="shared" si="0"/>
@@ -7942,11 +7885,11 @@
       </c>
       <c r="F21" s="50">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="50">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H21" s="50">
         <f t="shared" si="0"/>
@@ -7954,7 +7897,7 @@
       </c>
       <c r="I21" s="50">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -8011,7 +7954,7 @@
       <c r="C25" s="40"/>
       <c r="D25" s="62">
         <f>F21*100/I21</f>
-        <v>24.390243902439025</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>30</v>
@@ -8023,7 +7966,7 @@
       </c>
       <c r="D26" s="62">
         <f>G21*100/I21</f>
-        <v>75.609756097560975</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>30</v>
@@ -8076,10 +8019,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF34"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -8106,60 +8049,60 @@
     <col min="33" max="16384" width="9" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="82"/>
       <c r="B1" s="83"/>
     </row>
-    <row r="2" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+    <row r="2" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A2" s="242" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="210" t="s">
+      <c r="B2" s="243"/>
+      <c r="C2" s="244" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="F2" s="209" t="s">
+      <c r="D2" s="245"/>
+      <c r="F2" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="212" t="s">
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="246" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
-    </row>
-    <row r="3" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A3" s="215" t="s">
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
+      <c r="T2" s="248"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
+      <c r="B3" s="233"/>
+      <c r="C3" s="249" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
+      <c r="D3" s="250"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -8167,114 +8110,114 @@
       <c r="S3" s="86"/>
       <c r="T3" s="87"/>
     </row>
-    <row r="4" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A4" s="215" t="s">
+    <row r="4" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A4" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="224"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="236" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="225">
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="239">
         <v>29</v>
       </c>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
+      <c r="R4" s="240"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="241"/>
       <c r="V4" s="89"/>
     </row>
-    <row r="5" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A5" s="246" t="s">
+    <row r="5" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A5" s="217" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="230" t="s">
+      <c r="B5" s="218"/>
+      <c r="C5" s="219" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="231"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="230" t="s">
+      <c r="D5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="231"/>
-      <c r="J5" s="231"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="220" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="231"/>
-      <c r="N5" s="231"/>
-      <c r="O5" s="233" t="s">
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="P5" s="231"/>
-      <c r="Q5" s="231"/>
-      <c r="R5" s="231"/>
-      <c r="S5" s="231"/>
-      <c r="T5" s="234"/>
+      <c r="P5" s="220"/>
+      <c r="Q5" s="220"/>
+      <c r="R5" s="220"/>
+      <c r="S5" s="220"/>
+      <c r="T5" s="224"/>
       <c r="V5" s="89"/>
     </row>
-    <row r="6" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="235">
-        <f>COUNTIF(F31:HC31,"P")</f>
-        <v>27</v>
-      </c>
-      <c r="B6" s="236"/>
-      <c r="C6" s="237">
-        <f>COUNTIF(F31:HC31,"F")</f>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="225">
+        <f>COUNTIF(F28:GJ28,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="B6" s="226"/>
+      <c r="C6" s="227">
+        <f>COUNTIF(F28:GJ28,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="238"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="237">
+      <c r="D6" s="228"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="227">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="239"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="229"/>
       <c r="L6" s="90">
-        <f>COUNTIF(E30:HC30,"N")</f>
+        <f>COUNTIF(E27:GJ27,"N")</f>
         <v>1</v>
       </c>
       <c r="M6" s="90">
-        <f>COUNTIF(E30:HC30,"A")</f>
-        <v>26</v>
+        <f>COUNTIF(E27:GJ27,"A")</f>
+        <v>7</v>
       </c>
       <c r="N6" s="90">
-        <f>COUNTIF(E30:HC30,"B")</f>
+        <f>COUNTIF(E27:GJ27,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="240">
-        <f>COUNTA(E8:HF8)</f>
-        <v>27</v>
-      </c>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
-      <c r="R6" s="238"/>
-      <c r="S6" s="238"/>
-      <c r="T6" s="241"/>
+      <c r="O6" s="230">
+        <f>COUNTA(E8:GM8)</f>
+        <v>8</v>
+      </c>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
+      <c r="T6" s="231"/>
       <c r="U6" s="91"/>
     </row>
-    <row r="7" spans="1:32" ht="11.25" thickBot="1"/>
-    <row r="8" spans="1:32" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="130"/>
       <c r="B8" s="131"/>
       <c r="C8" s="132"/>
@@ -8290,79 +8233,22 @@
         <v>35</v>
       </c>
       <c r="I8" s="134" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="134" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" s="134" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="J8" s="134" t="s">
+      <c r="M8" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="K8" s="134" t="s">
-        <v>163</v>
-      </c>
-      <c r="L8" s="134" t="s">
-        <v>164</v>
-      </c>
-      <c r="M8" s="134" t="s">
-        <v>165</v>
-      </c>
-      <c r="N8" s="134" t="s">
-        <v>166</v>
-      </c>
-      <c r="O8" s="134" t="s">
-        <v>167</v>
-      </c>
-      <c r="P8" s="134" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q8" s="134" t="s">
-        <v>169</v>
-      </c>
-      <c r="R8" s="134" t="s">
-        <v>172</v>
-      </c>
-      <c r="S8" s="134" t="s">
-        <v>173</v>
-      </c>
-      <c r="T8" s="134" t="s">
-        <v>174</v>
-      </c>
-      <c r="U8" s="134" t="s">
-        <v>175</v>
-      </c>
-      <c r="V8" s="134" t="s">
-        <v>176</v>
-      </c>
-      <c r="W8" s="134" t="s">
-        <v>177</v>
-      </c>
-      <c r="X8" s="134" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y8" s="134" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z8" s="134" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA8" s="134" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB8" s="134" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC8" s="134" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD8" s="134" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE8" s="134" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF8" s="134" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="13.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="135" t="s">
         <v>58</v>
       </c>
@@ -8380,32 +8266,13 @@
       <c r="K9" s="99"/>
       <c r="L9" s="99"/>
       <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-    </row>
-    <row r="10" spans="1:32" ht="13.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="136"/>
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -8416,27 +8283,8 @@
       <c r="K10" s="99"/>
       <c r="L10" s="99"/>
       <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-    </row>
-    <row r="11" spans="1:32" ht="13.5" customHeight="1">
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
@@ -8450,27 +8298,8 @@
       <c r="K11" s="99"/>
       <c r="L11" s="99"/>
       <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-    </row>
-    <row r="12" spans="1:32" ht="13.5" customHeight="1">
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
       <c r="B12" s="95"/>
       <c r="C12" s="96"/>
@@ -8484,30 +8313,11 @@
       <c r="K12" s="99"/>
       <c r="L12" s="99"/>
       <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-    </row>
-    <row r="13" spans="1:32" ht="13.5" customHeight="1">
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
@@ -8520,32 +8330,13 @@
       <c r="K13" s="99"/>
       <c r="L13" s="99"/>
       <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-    </row>
-    <row r="14" spans="1:32" ht="13.5" customHeight="1">
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
@@ -8560,41 +8351,12 @@
       <c r="I14" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-    </row>
-    <row r="15" spans="1:32" ht="13.5" customHeight="1">
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
@@ -8606,55 +8368,26 @@
       <c r="G15" s="99"/>
       <c r="H15" s="99"/>
       <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99" t="s">
+      <c r="J15" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="99" t="s">
+      <c r="K15" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="Q15" s="99" t="s">
+      <c r="L15" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="R15" s="99" t="s">
+      <c r="M15" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="S15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="T15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="U15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="V15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="W15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="99"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="99"/>
-    </row>
-    <row r="16" spans="1:32" ht="13.5" customHeight="1">
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1">
       <c r="A16" s="136"/>
-      <c r="B16" s="95"/>
+      <c r="B16" s="95" t="s">
+        <v>117</v>
+      </c>
       <c r="C16" s="96"/>
-      <c r="D16" s="97" t="s">
-        <v>36</v>
-      </c>
+      <c r="D16" s="97"/>
       <c r="E16" s="103"/>
       <c r="F16" s="99"/>
       <c r="G16" s="99"/>
@@ -8664,1023 +8397,367 @@
       <c r="K16" s="99"/>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99" t="s">
+    </row>
+    <row r="17" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A17" s="136"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97">
+        <v>1</v>
+      </c>
+      <c r="E17" s="103"/>
+      <c r="F17" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="Y16" s="99" t="s">
+      <c r="G17" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="Z16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF16" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
       <c r="H17" s="99"/>
       <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
+      <c r="J17" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="L17" s="99"/>
       <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="99"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="99"/>
-    </row>
-    <row r="18" spans="1:32" ht="13.5" customHeight="1">
+    </row>
+    <row r="18" spans="1:13" ht="13.5" customHeight="1">
       <c r="A18" s="136"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
       <c r="D18" s="97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E18" s="103"/>
-      <c r="F18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="99" t="s">
-        <v>75</v>
-      </c>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="99"/>
+      <c r="I18" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="J18" s="99"/>
       <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99" t="s">
+      <c r="L18" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="P18" s="99" t="s">
+      <c r="M18" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="Q18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99"/>
-    </row>
-    <row r="19" spans="1:32" ht="13.5" customHeight="1">
+    </row>
+    <row r="19" spans="1:13" ht="13.5" customHeight="1">
       <c r="A19" s="136"/>
-      <c r="B19" s="95"/>
+      <c r="B19" s="95" t="s">
+        <v>165</v>
+      </c>
       <c r="C19" s="96"/>
-      <c r="D19" s="97">
-        <v>-1</v>
-      </c>
+      <c r="D19" s="97"/>
       <c r="E19" s="103"/>
       <c r="F19" s="99"/>
       <c r="G19" s="99"/>
       <c r="H19" s="99"/>
-      <c r="I19" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="99" t="s">
-        <v>75</v>
-      </c>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
       <c r="L19" s="99"/>
       <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99" t="s">
+    </row>
+    <row r="20" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A20" s="136"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="184">
+        <v>1</v>
+      </c>
+      <c r="E20" s="103"/>
+      <c r="F20" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="S19" s="99" t="s">
+      <c r="G20" s="99"/>
+      <c r="H20" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="T19" s="99" t="s">
+      <c r="I20" s="99"/>
+      <c r="J20" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="99"/>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB19" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC19" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-    </row>
-    <row r="20" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A20" s="136"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
       <c r="K20" s="99"/>
       <c r="L20" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="M20" s="99" t="s">
+      <c r="M20" s="99"/>
+    </row>
+    <row r="21" spans="1:13" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A21" s="136"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="254"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="N20" s="99" t="s">
+      <c r="H21" s="123"/>
+      <c r="I21" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99" t="s">
+      <c r="J21" s="123"/>
+      <c r="K21" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="V20" s="99" t="s">
+      <c r="L21" s="123"/>
+      <c r="M21" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="W20" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE20" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF20" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A21" s="136"/>
-      <c r="B21" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="99"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="99"/>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="99"/>
-    </row>
-    <row r="22" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A22" s="136"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97">
-        <v>1</v>
-      </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="99" t="s">
-        <v>75</v>
-      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A22" s="137" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="99"/>
       <c r="H22" s="99"/>
-      <c r="I22" s="99" t="s">
-        <v>75</v>
-      </c>
+      <c r="I22" s="99"/>
       <c r="J22" s="99"/>
       <c r="K22" s="99"/>
-      <c r="L22" s="99" t="s">
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+    </row>
+    <row r="23" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A23" s="138"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="174"/>
+      <c r="F23" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99" t="s">
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+    </row>
+    <row r="24" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A24" s="138"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="118"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99" t="s">
+      <c r="H24" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99" t="s">
+      <c r="I24" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="99" t="s">
+      <c r="J24" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="99" t="s">
+      <c r="K24" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="99"/>
-      <c r="AD22" s="99" t="s">
+      <c r="L24" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="99"/>
-    </row>
-    <row r="23" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A23" s="136"/>
-      <c r="B23" s="249"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="251">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="103"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="99" t="s">
+      <c r="M24" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="99"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="99" t="s">
+    </row>
+    <row r="25" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A25" s="138"/>
+      <c r="B25" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="185"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+    </row>
+    <row r="26" spans="1:13" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A26" s="138"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="121" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="122"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="99"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="99" t="s">
+      <c r="H26" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="99"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="99" t="s">
+      <c r="I26" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="99" t="s">
+      <c r="J26" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="T23" s="99"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="99" t="s">
+      <c r="K26" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="W23" s="99"/>
-      <c r="X23" s="123"/>
-      <c r="Y23" s="99" t="s">
+      <c r="L26" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="123"/>
-      <c r="AB23" s="99" t="s">
+      <c r="M26" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="123"/>
-      <c r="AE23" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF23" s="99"/>
-    </row>
-    <row r="24" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A24" s="136"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="107"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="U24" s="108"/>
-      <c r="V24" s="108"/>
-      <c r="W24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="X24" s="108"/>
-      <c r="Y24" s="108"/>
-      <c r="Z24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA24" s="108"/>
-      <c r="AB24" s="108"/>
-      <c r="AC24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD24" s="108"/>
-      <c r="AE24" s="108"/>
-      <c r="AF24" s="108" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A25" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="99"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="99"/>
-      <c r="AD25" s="99"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="99"/>
-    </row>
-    <row r="26" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A26" s="138"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="174"/>
-      <c r="F26" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="99"/>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="99"/>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="99"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="99"/>
-    </row>
-    <row r="27" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A27" s="138"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="116" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="M27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="N27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="O27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="P27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="R27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="S27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="T27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="U27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="V27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="W27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="X27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF27" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A28" s="138"/>
-      <c r="B28" s="119" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="252"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="253"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="123"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="123"/>
-      <c r="W28" s="123"/>
-      <c r="X28" s="123"/>
-      <c r="Y28" s="123"/>
-      <c r="Z28" s="123"/>
-      <c r="AA28" s="123"/>
-      <c r="AB28" s="123"/>
-      <c r="AC28" s="123"/>
-      <c r="AD28" s="123"/>
-      <c r="AE28" s="123"/>
-      <c r="AF28" s="123"/>
-    </row>
-    <row r="29" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A29" s="138"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="122"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="123"/>
-      <c r="W29" s="123"/>
-      <c r="X29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF29" s="123" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A30" s="137" t="s">
+    </row>
+    <row r="27" spans="1:13" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A27" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="242" t="s">
+      <c r="B27" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="124" t="s">
+      <c r="C27" s="213"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="124" t="s">
+      <c r="G27" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="124" t="s">
+      <c r="H27" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="124" t="s">
+      <c r="I27" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="J30" s="124" t="s">
+      <c r="J27" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="K30" s="124" t="s">
+      <c r="K27" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="L30" s="124" t="s">
+      <c r="L27" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="M30" s="124" t="s">
+      <c r="M27" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="O30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="P30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="R30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="S30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="T30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="U30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="V30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="W30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="X30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF30" s="124" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A31" s="139"/>
-      <c r="B31" s="243" t="s">
+    </row>
+    <row r="28" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A28" s="139"/>
+      <c r="B28" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="243"/>
-      <c r="D31" s="243"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="126" t="s">
+      <c r="C28" s="214"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="126" t="s">
+      <c r="G28" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="126" t="s">
+      <c r="H28" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="126" t="s">
+      <c r="I28" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="126" t="s">
+      <c r="J28" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="K31" s="126" t="s">
+      <c r="K28" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="L31" s="126" t="s">
+      <c r="L28" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="M31" s="126" t="s">
+      <c r="M28" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="N31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="O31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="P31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="R31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="S31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="T31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="U31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="V31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="W31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="X31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF31" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A32" s="139"/>
-      <c r="B32" s="244" t="s">
+    </row>
+    <row r="29" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A29" s="139"/>
+      <c r="B29" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="244"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="127">
+      <c r="C29" s="215"/>
+      <c r="D29" s="215"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="127">
         <v>39139</v>
       </c>
-      <c r="G32" s="127">
+      <c r="G29" s="127">
         <v>39139</v>
       </c>
-      <c r="H32" s="127">
-        <v>39140</v>
-      </c>
-      <c r="I32" s="127">
+      <c r="H29" s="127">
         <v>39141</v>
       </c>
-      <c r="J32" s="127">
+      <c r="I29" s="127">
         <v>39142</v>
       </c>
-      <c r="K32" s="127">
-        <v>39143</v>
-      </c>
-      <c r="L32" s="127">
-        <v>39144</v>
-      </c>
-      <c r="M32" s="127">
-        <v>39145</v>
-      </c>
-      <c r="N32" s="127">
-        <v>39146</v>
-      </c>
-      <c r="O32" s="127">
+      <c r="J29" s="127">
         <v>39147</v>
       </c>
-      <c r="P32" s="127">
+      <c r="K29" s="127">
         <v>39148</v>
       </c>
-      <c r="Q32" s="127">
-        <v>39149</v>
-      </c>
-      <c r="R32" s="127">
+      <c r="L29" s="127">
         <v>39150</v>
       </c>
-      <c r="S32" s="127">
+      <c r="M29" s="127">
         <v>39151</v>
       </c>
-      <c r="T32" s="127">
-        <v>39152</v>
-      </c>
-      <c r="U32" s="127">
-        <v>39153</v>
-      </c>
-      <c r="V32" s="127">
-        <v>39154</v>
-      </c>
-      <c r="W32" s="127">
-        <v>39155</v>
-      </c>
-      <c r="X32" s="127">
-        <v>39156</v>
-      </c>
-      <c r="Y32" s="127">
-        <v>39157</v>
-      </c>
-      <c r="Z32" s="127">
-        <v>39158</v>
-      </c>
-      <c r="AA32" s="127">
-        <v>39159</v>
-      </c>
-      <c r="AB32" s="127">
-        <v>39160</v>
-      </c>
-      <c r="AC32" s="127">
-        <v>39161</v>
-      </c>
-      <c r="AD32" s="127">
-        <v>39162</v>
-      </c>
-      <c r="AE32" s="127">
-        <v>39163</v>
-      </c>
-      <c r="AF32" s="127">
-        <v>39164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="11.25" thickBot="1">
-      <c r="A33" s="140"/>
-      <c r="B33" s="245" t="s">
+    </row>
+    <row r="30" spans="1:13" ht="11.25" thickBot="1">
+      <c r="A30" s="140"/>
+      <c r="B30" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="245"/>
-      <c r="D33" s="245"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="129"/>
-      <c r="Q33" s="129"/>
-      <c r="R33" s="129"/>
-      <c r="S33" s="129"/>
-      <c r="T33" s="129"/>
-      <c r="U33" s="129"/>
-      <c r="V33" s="129"/>
-      <c r="W33" s="129"/>
-      <c r="X33" s="129"/>
-      <c r="Y33" s="129"/>
-      <c r="Z33" s="129"/>
-      <c r="AA33" s="129"/>
-      <c r="AB33" s="129"/>
-      <c r="AC33" s="129"/>
-      <c r="AD33" s="129"/>
-      <c r="AE33" s="129"/>
-      <c r="AF33" s="129"/>
-    </row>
-    <row r="34" spans="1:32" ht="11.25" thickTop="1">
-      <c r="A34" s="92"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="84"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+    </row>
+    <row r="31" spans="1:13" ht="11.25" thickTop="1">
+      <c r="A31" s="92"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:K4"/>
@@ -9693,15 +8770,28 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31:AF31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:M28">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:AF30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:M27">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:AF29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:M26">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -9743,55 +8833,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="242" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="210" t="s">
+      <c r="B2" s="243"/>
+      <c r="C2" s="244" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="F2" s="209" t="s">
+      <c r="D2" s="245"/>
+      <c r="F2" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="212" t="s">
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="246" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
+      <c r="T2" s="248"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
+      <c r="B3" s="233"/>
+      <c r="C3" s="249" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
+      <c r="D3" s="250"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -9800,88 +8890,88 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="224"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="236" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="225">
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="239">
         <v>27</v>
       </c>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
+      <c r="R4" s="240"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="241"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="217" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="230" t="s">
+      <c r="B5" s="218"/>
+      <c r="C5" s="219" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="231"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="230" t="s">
+      <c r="D5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="231"/>
-      <c r="J5" s="231"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="220" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="231"/>
-      <c r="N5" s="231"/>
-      <c r="O5" s="233" t="s">
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="P5" s="231"/>
-      <c r="Q5" s="231"/>
-      <c r="R5" s="231"/>
-      <c r="S5" s="231"/>
-      <c r="T5" s="234"/>
+      <c r="P5" s="220"/>
+      <c r="Q5" s="220"/>
+      <c r="R5" s="220"/>
+      <c r="S5" s="220"/>
+      <c r="T5" s="224"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="235">
+      <c r="A6" s="225">
         <f>COUNTIF(F25:HE25,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="236"/>
-      <c r="C6" s="237">
+      <c r="B6" s="226"/>
+      <c r="C6" s="227">
         <f>COUNTIF(F25:HE25,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="238"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="237">
+      <c r="D6" s="228"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="227">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="239"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="229"/>
       <c r="L6" s="90">
         <f>COUNTIF(E24:HE24,"N")</f>
         <v>2</v>
@@ -9894,15 +8984,15 @@
         <f>COUNTIF(E24:HE24,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="240">
+      <c r="O6" s="230">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
-      <c r="R6" s="238"/>
-      <c r="S6" s="238"/>
-      <c r="T6" s="241"/>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
+      <c r="T6" s="231"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -9944,7 +9034,7 @@
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -9975,7 +9065,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
@@ -9989,7 +9079,7 @@
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
@@ -10004,7 +9094,7 @@
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99"/>
@@ -10068,7 +9158,7 @@
       <c r="B20" s="114"/>
       <c r="C20" s="115"/>
       <c r="D20" s="116" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E20" s="174"/>
       <c r="F20" s="99" t="s">
@@ -10096,11 +9186,11 @@
     <row r="22" spans="1:9" ht="13.5" customHeight="1">
       <c r="A22" s="138"/>
       <c r="B22" s="119" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="252"/>
+        <v>163</v>
+      </c>
+      <c r="C22" s="185"/>
       <c r="D22" s="121"/>
-      <c r="E22" s="253"/>
+      <c r="E22" s="186"/>
       <c r="F22" s="123"/>
       <c r="G22" s="123"/>
       <c r="H22" s="123"/>
@@ -10110,7 +9200,7 @@
       <c r="B23" s="119"/>
       <c r="C23" s="120"/>
       <c r="D23" s="121" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E23" s="122"/>
       <c r="F23" s="123"/>
@@ -10123,11 +9213,11 @@
       <c r="A24" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="242" t="s">
+      <c r="B24" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="242"/>
-      <c r="D24" s="242"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="213"/>
       <c r="E24" s="175"/>
       <c r="F24" s="124" t="s">
         <v>39</v>
@@ -10141,11 +9231,11 @@
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1">
       <c r="A25" s="139"/>
-      <c r="B25" s="243" t="s">
+      <c r="B25" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="243"/>
-      <c r="D25" s="243"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="214"/>
       <c r="E25" s="125"/>
       <c r="F25" s="126" t="s">
         <v>43</v>
@@ -10159,11 +9249,11 @@
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1">
       <c r="A26" s="139"/>
-      <c r="B26" s="244" t="s">
+      <c r="B26" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="244"/>
-      <c r="D26" s="244"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="215"/>
       <c r="E26" s="118"/>
       <c r="F26" s="127">
         <v>39139</v>
@@ -10177,11 +9267,11 @@
     </row>
     <row r="27" spans="1:9" ht="11.25" thickBot="1">
       <c r="A27" s="140"/>
-      <c r="B27" s="245" t="s">
+      <c r="B27" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="245"/>
-      <c r="D27" s="245"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="216"/>
       <c r="E27" s="128"/>
       <c r="F27" s="129"/>
       <c r="G27" s="129"/>
@@ -10195,19 +9285,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:K4"/>
@@ -10220,6 +9297,19 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:H24">
@@ -10246,7 +9336,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -10270,55 +9360,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="242" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="210" t="s">
+      <c r="B2" s="243"/>
+      <c r="C2" s="244" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="F2" s="209" t="s">
+      <c r="D2" s="245"/>
+      <c r="F2" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="212" t="s">
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="246" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
+      <c r="T2" s="248"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
+      <c r="B3" s="233"/>
+      <c r="C3" s="249" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
+      <c r="D3" s="250"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -10327,88 +9417,88 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="224"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="236" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="225">
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="239">
         <v>27</v>
       </c>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
+      <c r="R4" s="240"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="241"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="217" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="230" t="s">
+      <c r="B5" s="218"/>
+      <c r="C5" s="219" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="231"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="230" t="s">
+      <c r="D5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="231"/>
-      <c r="J5" s="231"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="220" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="231"/>
-      <c r="N5" s="231"/>
-      <c r="O5" s="233" t="s">
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="P5" s="231"/>
-      <c r="Q5" s="231"/>
-      <c r="R5" s="231"/>
-      <c r="S5" s="231"/>
-      <c r="T5" s="234"/>
+      <c r="P5" s="220"/>
+      <c r="Q5" s="220"/>
+      <c r="R5" s="220"/>
+      <c r="S5" s="220"/>
+      <c r="T5" s="224"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="235">
+      <c r="A6" s="225">
         <f>COUNTIF(F25:HE25,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="236"/>
-      <c r="C6" s="237">
+      <c r="B6" s="226"/>
+      <c r="C6" s="227">
         <f>COUNTIF(F25:HE25,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="238"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="237">
+      <c r="D6" s="228"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="227">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="239"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="229"/>
       <c r="L6" s="90">
         <f>COUNTIF(E24:HE24,"N")</f>
         <v>1</v>
@@ -10421,15 +9511,15 @@
         <f>COUNTIF(E24:HE24,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="240">
+      <c r="O6" s="230">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
-      <c r="R6" s="238"/>
-      <c r="S6" s="238"/>
-      <c r="T6" s="241"/>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
+      <c r="T6" s="231"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -10471,7 +9561,7 @@
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -10502,7 +9592,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
@@ -10516,7 +9606,7 @@
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
@@ -10594,7 +9684,7 @@
       <c r="B20" s="114"/>
       <c r="C20" s="115"/>
       <c r="D20" s="116" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E20" s="174"/>
       <c r="F20" s="99" t="s">
@@ -10622,11 +9712,11 @@
     <row r="22" spans="1:8" ht="13.5" customHeight="1">
       <c r="A22" s="138"/>
       <c r="B22" s="119" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="252"/>
+        <v>163</v>
+      </c>
+      <c r="C22" s="185"/>
       <c r="D22" s="121"/>
-      <c r="E22" s="253"/>
+      <c r="E22" s="186"/>
       <c r="F22" s="123"/>
       <c r="G22" s="123"/>
       <c r="H22" s="123"/>
@@ -10636,7 +9726,7 @@
       <c r="B23" s="119"/>
       <c r="C23" s="120"/>
       <c r="D23" s="121" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E23" s="122"/>
       <c r="F23" s="123"/>
@@ -10649,11 +9739,11 @@
       <c r="A24" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="242" t="s">
+      <c r="B24" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="242"/>
-      <c r="D24" s="242"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="213"/>
       <c r="E24" s="175"/>
       <c r="F24" s="124" t="s">
         <v>39</v>
@@ -10667,11 +9757,11 @@
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1">
       <c r="A25" s="139"/>
-      <c r="B25" s="243" t="s">
+      <c r="B25" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="243"/>
-      <c r="D25" s="243"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="214"/>
       <c r="E25" s="125"/>
       <c r="F25" s="126" t="s">
         <v>43</v>
@@ -10685,11 +9775,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1">
       <c r="A26" s="139"/>
-      <c r="B26" s="244" t="s">
+      <c r="B26" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="244"/>
-      <c r="D26" s="244"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="215"/>
       <c r="E26" s="118"/>
       <c r="F26" s="127">
         <v>39139</v>
@@ -10703,11 +9793,11 @@
     </row>
     <row r="27" spans="1:8" ht="11.25" thickBot="1">
       <c r="A27" s="140"/>
-      <c r="B27" s="245" t="s">
+      <c r="B27" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="245"/>
-      <c r="D27" s="245"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="216"/>
       <c r="E27" s="128"/>
       <c r="F27" s="129"/>
       <c r="G27" s="129"/>
@@ -10721,19 +9811,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:K4"/>
@@ -10746,6 +9823,19 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:H25">
@@ -10796,55 +9886,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="242" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="210" t="s">
+      <c r="B2" s="243"/>
+      <c r="C2" s="244" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="F2" s="209" t="s">
+      <c r="D2" s="245"/>
+      <c r="F2" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="212" t="s">
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="246" t="s">
         <v>138</v>
       </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
+      <c r="T2" s="248"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
+      <c r="B3" s="233"/>
+      <c r="C3" s="249" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
+      <c r="D3" s="250"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -10853,116 +9943,116 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="223">
+      <c r="B4" s="233"/>
+      <c r="C4" s="234">
         <v>300</v>
       </c>
-      <c r="D4" s="224"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="236" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="225">
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="239">
         <v>27</v>
       </c>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
+      <c r="R4" s="240"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="241"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="232" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="228" t="s">
+      <c r="B5" s="233"/>
+      <c r="C5" s="252" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="228"/>
-      <c r="S5" s="228"/>
-      <c r="T5" s="228"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="252"/>
+      <c r="P5" s="252"/>
+      <c r="Q5" s="252"/>
+      <c r="R5" s="252"/>
+      <c r="S5" s="252"/>
+      <c r="T5" s="252"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="246" t="s">
+      <c r="A6" s="217" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="247"/>
-      <c r="C6" s="230" t="s">
+      <c r="B6" s="218"/>
+      <c r="C6" s="219" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="231"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="230" t="s">
+      <c r="D6" s="220"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="232"/>
-      <c r="L6" s="231" t="s">
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="220" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="233" t="s">
+      <c r="M6" s="220"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="231"/>
-      <c r="S6" s="231"/>
-      <c r="T6" s="234"/>
+      <c r="P6" s="220"/>
+      <c r="Q6" s="220"/>
+      <c r="R6" s="220"/>
+      <c r="S6" s="220"/>
+      <c r="T6" s="224"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235">
+      <c r="A7" s="225">
         <f>COUNTIF(F26:HE26,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="237">
+      <c r="B7" s="226"/>
+      <c r="C7" s="227">
         <f>COUNTIF(F26:HE26,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="237">
+      <c r="D7" s="228"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="227">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="239"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="229"/>
       <c r="L7" s="90">
         <f>COUNTIF(E25:HE25,"N")</f>
         <v>1</v>
@@ -10975,15 +10065,15 @@
         <f>COUNTIF(E25:HE25,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="240">
+      <c r="O7" s="230">
         <f>COUNTA(E9:HH9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="238"/>
-      <c r="Q7" s="238"/>
-      <c r="R7" s="238"/>
-      <c r="S7" s="238"/>
-      <c r="T7" s="241"/>
+      <c r="P7" s="228"/>
+      <c r="Q7" s="228"/>
+      <c r="R7" s="228"/>
+      <c r="S7" s="228"/>
+      <c r="T7" s="231"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -11025,7 +10115,7 @@
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
@@ -11056,7 +10146,7 @@
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14" s="96"/>
       <c r="D14" s="97"/>
@@ -11070,7 +10160,7 @@
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99" t="s">
@@ -11148,7 +10238,7 @@
       <c r="B21" s="114"/>
       <c r="C21" s="115"/>
       <c r="D21" s="116" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E21" s="174"/>
       <c r="F21" s="99" t="s">
@@ -11176,11 +10266,11 @@
     <row r="23" spans="1:9" ht="13.5" customHeight="1">
       <c r="A23" s="138"/>
       <c r="B23" s="119" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="252"/>
+        <v>163</v>
+      </c>
+      <c r="C23" s="185"/>
       <c r="D23" s="121"/>
-      <c r="E23" s="253"/>
+      <c r="E23" s="186"/>
       <c r="F23" s="123"/>
       <c r="G23" s="123"/>
       <c r="H23" s="123"/>
@@ -11190,7 +10280,7 @@
       <c r="B24" s="119"/>
       <c r="C24" s="120"/>
       <c r="D24" s="121" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E24" s="122"/>
       <c r="F24" s="123"/>
@@ -11203,11 +10293,11 @@
       <c r="A25" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="242" t="s">
+      <c r="B25" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="242"/>
-      <c r="D25" s="242"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="213"/>
       <c r="E25" s="175"/>
       <c r="F25" s="124" t="s">
         <v>39</v>
@@ -11221,11 +10311,11 @@
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1">
       <c r="A26" s="139"/>
-      <c r="B26" s="243" t="s">
+      <c r="B26" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="243"/>
-      <c r="D26" s="243"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="214"/>
       <c r="E26" s="125"/>
       <c r="F26" s="126" t="s">
         <v>43</v>
@@ -11239,11 +10329,11 @@
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1">
       <c r="A27" s="139"/>
-      <c r="B27" s="244" t="s">
+      <c r="B27" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="244"/>
-      <c r="D27" s="244"/>
+      <c r="C27" s="215"/>
+      <c r="D27" s="215"/>
       <c r="E27" s="118"/>
       <c r="F27" s="127">
         <v>39139</v>
@@ -11257,11 +10347,11 @@
     </row>
     <row r="28" spans="1:9" ht="11.25" thickBot="1">
       <c r="A28" s="140"/>
-      <c r="B28" s="245" t="s">
+      <c r="B28" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="245"/>
-      <c r="D28" s="245"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="216"/>
       <c r="E28" s="128"/>
       <c r="F28" s="129"/>
       <c r="G28" s="129"/>
@@ -11275,25 +10365,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -11302,6 +10373,25 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:H25">
@@ -11325,10 +10415,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -11352,55 +10442,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="242" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="210" t="s">
+      <c r="B2" s="243"/>
+      <c r="C2" s="244" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="F2" s="209" t="s">
+      <c r="D2" s="245"/>
+      <c r="F2" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="212" t="s">
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="246" t="s">
         <v>140</v>
       </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
+      <c r="T2" s="248"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
+      <c r="B3" s="233"/>
+      <c r="C3" s="249" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
+      <c r="D3" s="250"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -11409,137 +10499,137 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="223">
+      <c r="B4" s="233"/>
+      <c r="C4" s="234">
         <v>300</v>
       </c>
-      <c r="D4" s="224"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="236" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="225">
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="239">
         <v>28</v>
       </c>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
+      <c r="R4" s="240"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="241"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="232" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="228" t="s">
+      <c r="B5" s="233"/>
+      <c r="C5" s="252" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="228"/>
-      <c r="S5" s="228"/>
-      <c r="T5" s="228"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="252"/>
+      <c r="P5" s="252"/>
+      <c r="Q5" s="252"/>
+      <c r="R5" s="252"/>
+      <c r="S5" s="252"/>
+      <c r="T5" s="252"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="246" t="s">
+      <c r="A6" s="217" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="247"/>
-      <c r="C6" s="230" t="s">
+      <c r="B6" s="218"/>
+      <c r="C6" s="219" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="231"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="230" t="s">
+      <c r="D6" s="220"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="232"/>
-      <c r="L6" s="231" t="s">
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="220" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="233" t="s">
+      <c r="M6" s="220"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="231"/>
-      <c r="S6" s="231"/>
-      <c r="T6" s="234"/>
+      <c r="P6" s="220"/>
+      <c r="Q6" s="220"/>
+      <c r="R6" s="220"/>
+      <c r="S6" s="220"/>
+      <c r="T6" s="224"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235">
-        <f>COUNTIF(F21:HD21,"P")</f>
-        <v>2</v>
-      </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="237">
-        <f>COUNTIF(F21:HD21,"F")</f>
+      <c r="A7" s="225">
+        <f>COUNTIF(F20:HC20,"P")</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="226"/>
+      <c r="C7" s="227">
+        <f>COUNTIF(F20:HC20,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="237">
+      <c r="D7" s="228"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="227">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="239"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="229"/>
       <c r="L7" s="90">
-        <f>COUNTIF(E20:HD20,"N")</f>
-        <v>2</v>
+        <f>COUNTIF(E19:HC19,"N")</f>
+        <v>1</v>
       </c>
       <c r="M7" s="90">
-        <f>COUNTIF(E20:HD20,"A")</f>
+        <f>COUNTIF(E19:HC19,"A")</f>
         <v>0</v>
       </c>
       <c r="N7" s="90">
-        <f>COUNTIF(E20:HD20,"B")</f>
+        <f>COUNTIF(E19:HC19,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="240">
-        <f>COUNTA(E9:HG9)</f>
-        <v>2</v>
-      </c>
-      <c r="P7" s="238"/>
-      <c r="Q7" s="238"/>
-      <c r="R7" s="238"/>
-      <c r="S7" s="238"/>
-      <c r="T7" s="241"/>
+      <c r="O7" s="230">
+        <f>COUNTA(E9:HF9)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="228"/>
+      <c r="Q7" s="228"/>
+      <c r="R7" s="228"/>
+      <c r="S7" s="228"/>
+      <c r="T7" s="231"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -11552,12 +10642,9 @@
       <c r="F9" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="82"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="135" t="s">
@@ -11570,197 +10657,144 @@
       <c r="D10" s="97"/>
       <c r="E10" s="98"/>
       <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="I11" s="89"/>
+      <c r="H11" s="89"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
       <c r="B12" s="95"/>
       <c r="C12" s="96"/>
       <c r="D12" s="97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E12" s="100"/>
       <c r="F12" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="99"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95"/>
       <c r="C13" s="96"/>
-      <c r="D13" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="101"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="99"/>
-      <c r="G13" s="99" t="s">
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A14" s="136"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A15" s="137" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="113"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A16" s="138"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="174"/>
+      <c r="F16" s="99" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A14" s="136"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A15" s="136"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A16" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1">
       <c r="A17" s="138"/>
       <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="116" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="174"/>
-      <c r="F17" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="99"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="E17" s="118"/>
+      <c r="F17" s="99"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="A18" s="138"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="116" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="118"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="138"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A20" s="137" t="s">
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="123"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A19" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="242" t="s">
+      <c r="B19" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="242"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="124" t="s">
+      <c r="C19" s="213"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="124" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.5" customHeight="1">
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A20" s="139"/>
+      <c r="B20" s="214" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1">
       <c r="A21" s="139"/>
-      <c r="B21" s="243" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="243"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A22" s="139"/>
-      <c r="B22" s="244" t="s">
+      <c r="B21" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="244"/>
-      <c r="D22" s="244"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="127">
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="127">
         <v>39139</v>
       </c>
-      <c r="G22" s="127">
-        <v>39139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="11.25" thickBot="1">
-      <c r="A23" s="140"/>
-      <c r="B23" s="245" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="11.25" thickBot="1">
+      <c r="A22" s="140"/>
+      <c r="B22" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="245"/>
-      <c r="D23" s="245"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-    </row>
-    <row r="24" spans="1:7" ht="11.25" thickTop="1">
-      <c r="A24" s="92"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="84"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="216"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+    </row>
+    <row r="23" spans="1:6" ht="11.25" thickTop="1">
+      <c r="A23" s="92"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -11769,15 +10803,34 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F18">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Question_Unit-Test-Case.xlsx
+++ b/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Question_Unit-Test-Case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -60,10 +60,10 @@
     <definedName name="getLessonVersion" localSheetId="9">#REF!</definedName>
     <definedName name="getLessonVersion">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">deleteQuestion!$A$1:$T$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">findAllQuestion!$A$1:$T$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">findAllQuestion!$A$1:$T$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">findQuestionByCode!$A$1:$T$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">findQuestionById!$A$1:$T$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">generateTest!$A$1:$T$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">generateTest!$A$1:$T$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">saveQuestion!$A$1:$T$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">updateQuestion!$A$1:$T$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ガイドライン!$A$1:$A$48</definedName>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="187">
   <si>
     <r>
       <rPr>
@@ -1370,6 +1370,12 @@
     <t>List&lt;QuestionModel&gt;</t>
   </si>
   <si>
+    <t>examSkill</t>
+  </si>
+  <si>
+    <t>questionNumber</t>
+  </si>
+  <si>
     <t>QuestionModel</t>
   </si>
   <si>
@@ -1391,6 +1397,9 @@
     <t>Question has been added</t>
   </si>
   <si>
+    <t>No question has been added</t>
+  </si>
+  <si>
     <t xml:space="preserve"> singular question</t>
   </si>
   <si>
@@ -1418,16 +1427,67 @@
     <t>UTCID08</t>
   </si>
   <si>
+    <t>UTCID09</t>
+  </si>
+  <si>
+    <t>UTCID10</t>
+  </si>
+  <si>
+    <t>UTCID11</t>
+  </si>
+  <si>
+    <t>UTCID12</t>
+  </si>
+  <si>
     <t>Exception</t>
   </si>
   <si>
     <t>exception</t>
   </si>
   <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>numberOfQuestion</t>
+    <t>UTCID13</t>
+  </si>
+  <si>
+    <t>UTCID14</t>
+  </si>
+  <si>
+    <t>UTCID15</t>
+  </si>
+  <si>
+    <t>UTCID16</t>
+  </si>
+  <si>
+    <t>UTCID17</t>
+  </si>
+  <si>
+    <t>UTCID18</t>
+  </si>
+  <si>
+    <t>UTCID19</t>
+  </si>
+  <si>
+    <t>UTCID20</t>
+  </si>
+  <si>
+    <t>UTCID21</t>
+  </si>
+  <si>
+    <t>UTCID22</t>
+  </si>
+  <si>
+    <t>UTCID23</t>
+  </si>
+  <si>
+    <t>UTCID24</t>
+  </si>
+  <si>
+    <t>UTCID25</t>
+  </si>
+  <si>
+    <t>UTCID26</t>
+  </si>
+  <si>
+    <t>UTCID27</t>
   </si>
 </sst>
 </file>
@@ -3082,7 +3142,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -3560,17 +3620,6 @@
     <xf numFmtId="14" fontId="44" fillId="29" borderId="16" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="49" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="50" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="42" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3647,6 +3696,108 @@
     <xf numFmtId="14" fontId="44" fillId="24" borderId="11" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="73" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="46" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="46" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="74" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="75" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="76" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="43" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="63" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="58" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="60" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="65" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="58" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="45" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
@@ -3665,114 +3816,20 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="58" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="45" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="58" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="60" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="73" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="46" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="46" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="74" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="75" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="76" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="43" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="63" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="65" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="49" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="50" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -4027,10 +4084,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4451,10 +4508,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4735,7 +4792,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5163,7 +5220,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6030,55 +6087,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="210" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="F2" s="243" t="s">
+      <c r="D2" s="211"/>
+      <c r="F2" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="246" t="s">
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="M2" s="247"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="247"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="247"/>
-      <c r="S2" s="247"/>
-      <c r="T2" s="248"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="214"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="249" t="s">
+      <c r="B3" s="216"/>
+      <c r="C3" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="236" t="s">
+      <c r="D3" s="218"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="218"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -6087,116 +6144,116 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234">
+      <c r="B4" s="216"/>
+      <c r="C4" s="223">
         <v>300</v>
       </c>
-      <c r="D4" s="235"/>
+      <c r="D4" s="224"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="220" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="239">
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="225">
         <v>28</v>
       </c>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="240"/>
-      <c r="R4" s="240"/>
-      <c r="S4" s="240"/>
-      <c r="T4" s="241"/>
+      <c r="M4" s="226"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="227"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="232" t="s">
+      <c r="A5" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="233"/>
-      <c r="C5" s="252" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="228" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="252"/>
-      <c r="N5" s="252"/>
-      <c r="O5" s="252"/>
-      <c r="P5" s="252"/>
-      <c r="Q5" s="252"/>
-      <c r="R5" s="252"/>
-      <c r="S5" s="252"/>
-      <c r="T5" s="252"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="229"/>
+      <c r="K5" s="229"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="228"/>
+      <c r="Q5" s="228"/>
+      <c r="R5" s="228"/>
+      <c r="S5" s="228"/>
+      <c r="T5" s="228"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="246" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="219" t="s">
+      <c r="B6" s="247"/>
+      <c r="C6" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="220"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="219" t="s">
+      <c r="D6" s="231"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="220" t="s">
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="220"/>
-      <c r="N6" s="220"/>
-      <c r="O6" s="223" t="s">
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="220"/>
-      <c r="R6" s="220"/>
-      <c r="S6" s="220"/>
-      <c r="T6" s="224"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="231"/>
+      <c r="S6" s="231"/>
+      <c r="T6" s="234"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="225">
+      <c r="A7" s="235">
         <f>COUNTIF(F19:HD19,"P")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="226"/>
-      <c r="C7" s="227">
+      <c r="B7" s="236"/>
+      <c r="C7" s="237">
         <f>COUNTIF(F19:HD19,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="228"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="227">
+      <c r="D7" s="238"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="237">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="229"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="239"/>
       <c r="L7" s="90">
         <f>COUNTIF(E18:HD18,"N")</f>
         <v>2</v>
@@ -6209,15 +6266,15 @@
         <f>COUNTIF(E18:HD18,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="230">
+      <c r="O7" s="240">
         <f>COUNTA(E9:HG9)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="228"/>
-      <c r="Q7" s="228"/>
-      <c r="R7" s="228"/>
-      <c r="S7" s="228"/>
-      <c r="T7" s="231"/>
+      <c r="P7" s="238"/>
+      <c r="Q7" s="238"/>
+      <c r="R7" s="238"/>
+      <c r="S7" s="238"/>
+      <c r="T7" s="241"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -6255,7 +6312,7 @@
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
@@ -6283,7 +6340,7 @@
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C14" s="96"/>
       <c r="D14" s="97"/>
@@ -6296,7 +6353,7 @@
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99" t="s">
@@ -6310,7 +6367,7 @@
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="176" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E16" s="103"/>
       <c r="F16" s="99"/>
@@ -6332,11 +6389,11 @@
       <c r="A18" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="213" t="s">
+      <c r="B18" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="213"/>
-      <c r="D18" s="213"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
       <c r="E18" s="175"/>
       <c r="F18" s="124" t="s">
         <v>39</v>
@@ -6347,11 +6404,11 @@
     </row>
     <row r="19" spans="1:8" ht="13.5" customHeight="1">
       <c r="A19" s="139"/>
-      <c r="B19" s="214" t="s">
+      <c r="B19" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="214"/>
-      <c r="D19" s="214"/>
+      <c r="C19" s="243"/>
+      <c r="D19" s="243"/>
       <c r="E19" s="125"/>
       <c r="F19" s="126" t="s">
         <v>43</v>
@@ -6362,11 +6419,11 @@
     </row>
     <row r="20" spans="1:8" ht="13.5" customHeight="1">
       <c r="A20" s="139"/>
-      <c r="B20" s="215" t="s">
+      <c r="B20" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="215"/>
-      <c r="D20" s="215"/>
+      <c r="C20" s="244"/>
+      <c r="D20" s="244"/>
       <c r="E20" s="118"/>
       <c r="F20" s="127">
         <v>39139</v>
@@ -6377,11 +6434,11 @@
     </row>
     <row r="21" spans="1:8" ht="11.25" thickBot="1">
       <c r="A21" s="140"/>
-      <c r="B21" s="216" t="s">
+      <c r="B21" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="216"/>
-      <c r="D21" s="216"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="245"/>
       <c r="E21" s="128"/>
       <c r="F21" s="129"/>
       <c r="G21" s="129"/>
@@ -6394,6 +6451,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -6402,25 +6478,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:G18">
@@ -6446,7 +6503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -6471,55 +6528,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="210" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="F2" s="243" t="s">
+      <c r="D2" s="211"/>
+      <c r="F2" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="246" t="s">
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="212" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="247"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="247"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="247"/>
-      <c r="S2" s="247"/>
-      <c r="T2" s="248"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="214"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="249" t="s">
+      <c r="B3" s="216"/>
+      <c r="C3" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="236" t="s">
+      <c r="D3" s="218"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="218"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -6528,116 +6585,116 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234">
+      <c r="B4" s="216"/>
+      <c r="C4" s="223">
         <v>300</v>
       </c>
-      <c r="D4" s="235"/>
+      <c r="D4" s="224"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="220" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="239">
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="225">
         <v>29</v>
       </c>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="240"/>
-      <c r="R4" s="240"/>
-      <c r="S4" s="240"/>
-      <c r="T4" s="241"/>
+      <c r="M4" s="226"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="227"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="232" t="s">
+      <c r="A5" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="233"/>
-      <c r="C5" s="252" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="228" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="252"/>
-      <c r="N5" s="252"/>
-      <c r="O5" s="252"/>
-      <c r="P5" s="252"/>
-      <c r="Q5" s="252"/>
-      <c r="R5" s="252"/>
-      <c r="S5" s="252"/>
-      <c r="T5" s="252"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="229"/>
+      <c r="K5" s="229"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="228"/>
+      <c r="Q5" s="228"/>
+      <c r="R5" s="228"/>
+      <c r="S5" s="228"/>
+      <c r="T5" s="228"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="246" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="219" t="s">
+      <c r="B6" s="247"/>
+      <c r="C6" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="220"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="219" t="s">
+      <c r="D6" s="231"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="220" t="s">
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="220"/>
-      <c r="N6" s="220"/>
-      <c r="O6" s="223" t="s">
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="220"/>
-      <c r="R6" s="220"/>
-      <c r="S6" s="220"/>
-      <c r="T6" s="224"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="231"/>
+      <c r="S6" s="231"/>
+      <c r="T6" s="234"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="225">
+      <c r="A7" s="235">
         <f>COUNTIF(F18:HC18,"P")</f>
         <v>1</v>
       </c>
-      <c r="B7" s="226"/>
-      <c r="C7" s="227">
+      <c r="B7" s="236"/>
+      <c r="C7" s="237">
         <f>COUNTIF(F18:HC18,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="228"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="227">
+      <c r="D7" s="238"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="237">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="229"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="239"/>
       <c r="L7" s="90">
         <f>COUNTIF(E17:HC17,"N")</f>
         <v>1</v>
@@ -6650,15 +6707,15 @@
         <f>COUNTIF(E17:HC17,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="230">
+      <c r="O7" s="240">
         <f>COUNTA(E9:HF9)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="228"/>
-      <c r="Q7" s="228"/>
-      <c r="R7" s="228"/>
-      <c r="S7" s="228"/>
-      <c r="T7" s="231"/>
+      <c r="P7" s="238"/>
+      <c r="Q7" s="238"/>
+      <c r="R7" s="238"/>
+      <c r="S7" s="238"/>
+      <c r="T7" s="241"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -6692,7 +6749,7 @@
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
@@ -6717,7 +6774,7 @@
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C14" s="96"/>
       <c r="D14" s="97"/>
@@ -6729,7 +6786,7 @@
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99" t="s">
@@ -6749,11 +6806,11 @@
       <c r="A17" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="213" t="s">
+      <c r="B17" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="213"/>
-      <c r="D17" s="213"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
       <c r="E17" s="175"/>
       <c r="F17" s="124" t="s">
         <v>39</v>
@@ -6761,11 +6818,11 @@
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
       <c r="A18" s="139"/>
-      <c r="B18" s="214" t="s">
+      <c r="B18" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="214"/>
-      <c r="D18" s="214"/>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
       <c r="E18" s="125"/>
       <c r="F18" s="126" t="s">
         <v>43</v>
@@ -6773,11 +6830,11 @@
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1">
       <c r="A19" s="139"/>
-      <c r="B19" s="215" t="s">
+      <c r="B19" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
+      <c r="C19" s="244"/>
+      <c r="D19" s="244"/>
       <c r="E19" s="118"/>
       <c r="F19" s="127">
         <v>39139</v>
@@ -6785,11 +6842,11 @@
     </row>
     <row r="20" spans="1:6" ht="11.25" thickBot="1">
       <c r="A20" s="140"/>
-      <c r="B20" s="216" t="s">
+      <c r="B20" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="216"/>
-      <c r="D20" s="216"/>
+      <c r="C20" s="245"/>
+      <c r="D20" s="245"/>
       <c r="E20" s="128"/>
       <c r="F20" s="129"/>
     </row>
@@ -6801,6 +6858,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -6809,25 +6885,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F16">
@@ -6870,13 +6927,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="142" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="141"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="143"/>
@@ -6887,11 +6944,11 @@
       <c r="A4" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="148" t="s">
         <v>2</v>
       </c>
@@ -6903,25 +6960,25 @@
       <c r="A5" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="184" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="147" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="149"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="186" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
       <c r="E6" s="148" t="s">
         <v>6</v>
       </c>
@@ -6930,10 +6987,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="190"/>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
       <c r="E7" s="148" t="s">
         <v>7</v>
       </c>
@@ -7105,40 +7162,40 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="194" t="s">
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="189" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="196"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="191"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="193"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="194" t="s">
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="196"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="190"/>
+      <c r="H5" s="191"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="202"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="197"/>
       <c r="E6" s="79">
         <v>100</v>
       </c>
@@ -7147,18 +7204,18 @@
       <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="197" t="s">
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="192" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="194"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -7436,17 +7493,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="35"/>
@@ -7463,72 +7520,72 @@
       <c r="A4" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="205" t="str">
+      <c r="B4" s="200" t="str">
         <f>表紙!B4</f>
         <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="206" t="s">
+      <c r="C4" s="200"/>
+      <c r="D4" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="209"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="204"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="205" t="str">
+      <c r="B5" s="200" t="str">
         <f>表紙!B5</f>
         <v>Veazy</v>
       </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="206" t="s">
+      <c r="C5" s="200"/>
+      <c r="D5" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="209"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="204"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="205" t="str">
+      <c r="B6" s="200" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>Veazy_Test Report_v1.0</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="206" t="s">
+      <c r="C6" s="200"/>
+      <c r="D6" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="206"/>
-      <c r="F6" s="210">
+      <c r="E6" s="201"/>
+      <c r="F6" s="205">
         <v>42585</v>
       </c>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="212"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="203" t="s">
+      <c r="B7" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="203"/>
-      <c r="H7" s="203"/>
-      <c r="I7" s="203"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="38"/>
@@ -7601,7 +7658,7 @@
       </c>
       <c r="C12" s="47">
         <f>generateTest!A6</f>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D12" s="47">
         <f>generateTest!C6</f>
@@ -7617,7 +7674,7 @@
       </c>
       <c r="G12" s="47">
         <f>generateTest!M6</f>
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H12" s="47">
         <f>generateTest!N6</f>
@@ -7625,7 +7682,7 @@
       </c>
       <c r="I12" s="47">
         <f>generateTest!O6</f>
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7745,7 +7802,7 @@
       </c>
       <c r="C16" s="47">
         <f>findAllQuestion!A7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="47">
         <f>findAllQuestion!C7</f>
@@ -7757,7 +7814,7 @@
       </c>
       <c r="F16" s="47">
         <f>findAllQuestion!L7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="47">
         <f>findAllQuestion!M7</f>
@@ -7769,7 +7826,7 @@
       </c>
       <c r="I16" s="47">
         <f>findAllQuestion!O7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -7873,7 +7930,7 @@
       </c>
       <c r="C21" s="50">
         <f t="shared" ref="C21:I21" si="0">SUM(C10:C20)</f>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D21" s="50">
         <f t="shared" si="0"/>
@@ -7885,11 +7942,11 @@
       </c>
       <c r="F21" s="50">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="50">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H21" s="50">
         <f t="shared" si="0"/>
@@ -7897,7 +7954,7 @@
       </c>
       <c r="I21" s="50">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -7954,7 +8011,7 @@
       <c r="C25" s="40"/>
       <c r="D25" s="62">
         <f>F21*100/I21</f>
-        <v>42.857142857142854</v>
+        <v>24.390243902439025</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>30</v>
@@ -7966,7 +8023,7 @@
       </c>
       <c r="D26" s="62">
         <f>G21*100/I21</f>
-        <v>57.142857142857146</v>
+        <v>75.609756097560975</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>30</v>
@@ -8019,10 +8076,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -8049,60 +8106,60 @@
     <col min="33" max="16384" width="9" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="82"/>
       <c r="B1" s="83"/>
     </row>
-    <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+    <row r="2" spans="1:32" ht="13.5" customHeight="1">
+      <c r="A2" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="F2" s="243" t="s">
+      <c r="D2" s="211"/>
+      <c r="F2" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="246" t="s">
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="212" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="247"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="247"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="247"/>
-      <c r="S2" s="247"/>
-      <c r="T2" s="248"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="214"/>
+    </row>
+    <row r="3" spans="1:32" ht="13.5" customHeight="1">
+      <c r="A3" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="249" t="s">
+      <c r="B3" s="216"/>
+      <c r="C3" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="236" t="s">
+      <c r="D3" s="218"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="218"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -8110,114 +8167,114 @@
       <c r="S3" s="86"/>
       <c r="T3" s="87"/>
     </row>
-    <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
+    <row r="4" spans="1:32" ht="13.5" customHeight="1">
+      <c r="A4" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="224"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="220" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="239">
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="225">
         <v>29</v>
       </c>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="240"/>
-      <c r="R4" s="240"/>
-      <c r="S4" s="240"/>
-      <c r="T4" s="241"/>
+      <c r="M4" s="226"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="227"/>
       <c r="V4" s="89"/>
     </row>
-    <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+    <row r="5" spans="1:32" ht="13.5" customHeight="1">
+      <c r="A5" s="246" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="219" t="s">
+      <c r="B5" s="247"/>
+      <c r="C5" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="219" t="s">
+      <c r="D5" s="231"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="222"/>
-      <c r="L5" s="220" t="s">
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="223" t="s">
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="220"/>
-      <c r="S5" s="220"/>
-      <c r="T5" s="224"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="234"/>
       <c r="V5" s="89"/>
     </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="225">
-        <f>COUNTIF(F28:GJ28,"P")</f>
-        <v>8</v>
-      </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="227">
-        <f>COUNTIF(F28:GJ28,"F")</f>
+    <row r="6" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="235">
+        <f>COUNTIF(F31:HC31,"P")</f>
+        <v>27</v>
+      </c>
+      <c r="B6" s="236"/>
+      <c r="C6" s="237">
+        <f>COUNTIF(F31:HC31,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="228"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="227">
+      <c r="D6" s="238"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="237">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="229"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
       <c r="L6" s="90">
-        <f>COUNTIF(E27:GJ27,"N")</f>
+        <f>COUNTIF(E30:HC30,"N")</f>
         <v>1</v>
       </c>
       <c r="M6" s="90">
-        <f>COUNTIF(E27:GJ27,"A")</f>
-        <v>7</v>
+        <f>COUNTIF(E30:HC30,"A")</f>
+        <v>26</v>
       </c>
       <c r="N6" s="90">
-        <f>COUNTIF(E27:GJ27,"B")</f>
+        <f>COUNTIF(E30:HC30,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="230">
-        <f>COUNTA(E8:GM8)</f>
-        <v>8</v>
-      </c>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="228"/>
-      <c r="S6" s="228"/>
-      <c r="T6" s="231"/>
+      <c r="O6" s="240">
+        <f>COUNTA(E8:HF8)</f>
+        <v>27</v>
+      </c>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="91"/>
     </row>
-    <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
-    <row r="8" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:32" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:32" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="130"/>
       <c r="B8" s="131"/>
       <c r="C8" s="132"/>
@@ -8233,22 +8290,79 @@
         <v>35</v>
       </c>
       <c r="I8" s="134" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J8" s="134" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K8" s="134" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L8" s="134" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M8" s="134" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="13.5" customHeight="1">
+        <v>165</v>
+      </c>
+      <c r="N8" s="134" t="s">
+        <v>166</v>
+      </c>
+      <c r="O8" s="134" t="s">
+        <v>167</v>
+      </c>
+      <c r="P8" s="134" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q8" s="134" t="s">
+        <v>169</v>
+      </c>
+      <c r="R8" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="S8" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="T8" s="134" t="s">
+        <v>174</v>
+      </c>
+      <c r="U8" s="134" t="s">
+        <v>175</v>
+      </c>
+      <c r="V8" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="W8" s="134" t="s">
+        <v>177</v>
+      </c>
+      <c r="X8" s="134" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y8" s="134" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z8" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA8" s="134" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB8" s="134" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC8" s="134" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD8" s="134" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE8" s="134" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF8" s="134" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="13.5" customHeight="1">
       <c r="A9" s="135" t="s">
         <v>58</v>
       </c>
@@ -8266,13 +8380,32 @@
       <c r="K9" s="99"/>
       <c r="L9" s="99"/>
       <c r="M9" s="99"/>
-    </row>
-    <row r="10" spans="1:22" ht="13.5" customHeight="1">
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+    </row>
+    <row r="10" spans="1:32" ht="13.5" customHeight="1">
       <c r="A10" s="136"/>
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -8283,8 +8416,27 @@
       <c r="K10" s="99"/>
       <c r="L10" s="99"/>
       <c r="M10" s="99"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.5" customHeight="1">
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="99"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="99"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="99"/>
+      <c r="AC10" s="99"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="99"/>
+    </row>
+    <row r="11" spans="1:32" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
@@ -8298,8 +8450,27 @@
       <c r="K11" s="99"/>
       <c r="L11" s="99"/>
       <c r="M11" s="99"/>
-    </row>
-    <row r="12" spans="1:22" ht="13.5" customHeight="1">
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="99"/>
+    </row>
+    <row r="12" spans="1:32" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
       <c r="B12" s="95"/>
       <c r="C12" s="96"/>
@@ -8313,11 +8484,30 @@
       <c r="K12" s="99"/>
       <c r="L12" s="99"/>
       <c r="M12" s="99"/>
-    </row>
-    <row r="13" spans="1:22" ht="13.5" customHeight="1">
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
+    </row>
+    <row r="13" spans="1:32" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
@@ -8330,13 +8520,32 @@
       <c r="K13" s="99"/>
       <c r="L13" s="99"/>
       <c r="M13" s="99"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.5" customHeight="1">
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="99"/>
+    </row>
+    <row r="14" spans="1:32" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
@@ -8351,12 +8560,41 @@
       <c r="I14" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.5" customHeight="1">
+      <c r="J14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+    </row>
+    <row r="15" spans="1:32" ht="13.5" customHeight="1">
       <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
@@ -8368,26 +8606,55 @@
       <c r="G15" s="99"/>
       <c r="H15" s="99"/>
       <c r="I15" s="99"/>
-      <c r="J15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="L15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="S15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" s="99"/>
+      <c r="Y15" s="99"/>
+      <c r="Z15" s="99"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="99"/>
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="99"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="99"/>
+    </row>
+    <row r="16" spans="1:32" ht="13.5" customHeight="1">
       <c r="A16" s="136"/>
-      <c r="B16" s="95" t="s">
-        <v>117</v>
-      </c>
+      <c r="B16" s="95"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
+      <c r="D16" s="97" t="s">
+        <v>36</v>
+      </c>
       <c r="E16" s="103"/>
       <c r="F16" s="99"/>
       <c r="G16" s="99"/>
@@ -8397,367 +8664,1023 @@
       <c r="K16" s="99"/>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
-    </row>
-    <row r="17" spans="1:13" ht="13.5" customHeight="1">
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF16" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="13.5" customHeight="1">
       <c r="A17" s="136"/>
-      <c r="B17" s="95"/>
+      <c r="B17" s="95" t="s">
+        <v>117</v>
+      </c>
       <c r="C17" s="96"/>
-      <c r="D17" s="97">
-        <v>1</v>
-      </c>
+      <c r="D17" s="97"/>
       <c r="E17" s="103"/>
-      <c r="F17" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="99" t="s">
-        <v>75</v>
-      </c>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
       <c r="H17" s="99"/>
       <c r="I17" s="99"/>
-      <c r="J17" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="99" t="s">
-        <v>75</v>
-      </c>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
       <c r="L17" s="99"/>
       <c r="M17" s="99"/>
-    </row>
-    <row r="18" spans="1:13" ht="13.5" customHeight="1">
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="99"/>
+      <c r="W17" s="99"/>
+      <c r="X17" s="99"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="99"/>
+      <c r="AD17" s="99"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="99"/>
+    </row>
+    <row r="18" spans="1:32" ht="13.5" customHeight="1">
       <c r="A18" s="136"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
       <c r="D18" s="97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E18" s="103"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
+      <c r="F18" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="H18" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="99" t="s">
-        <v>75</v>
-      </c>
+      <c r="I18" s="99"/>
       <c r="J18" s="99"/>
       <c r="K18" s="99"/>
-      <c r="L18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="13.5" customHeight="1">
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="99"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="99"/>
+    </row>
+    <row r="19" spans="1:32" ht="13.5" customHeight="1">
       <c r="A19" s="136"/>
-      <c r="B19" s="95" t="s">
-        <v>165</v>
-      </c>
+      <c r="B19" s="95"/>
       <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
+      <c r="D19" s="97">
+        <v>-1</v>
+      </c>
       <c r="E19" s="103"/>
       <c r="F19" s="99"/>
       <c r="G19" s="99"/>
       <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
+      <c r="I19" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="L19" s="99"/>
       <c r="M19" s="99"/>
-    </row>
-    <row r="20" spans="1:13" ht="13.5" customHeight="1">
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="S19" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB19" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC19" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="99"/>
+    </row>
+    <row r="20" spans="1:32" ht="13.5" customHeight="1">
       <c r="A20" s="136"/>
-      <c r="B20" s="182"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184">
-        <v>1</v>
+      <c r="B20" s="95"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97" t="s">
+        <v>36</v>
       </c>
       <c r="E20" s="103"/>
-      <c r="F20" s="123" t="s">
-        <v>75</v>
-      </c>
+      <c r="F20" s="99"/>
       <c r="G20" s="99"/>
-      <c r="H20" s="99" t="s">
-        <v>75</v>
-      </c>
+      <c r="H20" s="99"/>
       <c r="I20" s="99"/>
-      <c r="J20" s="99" t="s">
-        <v>75</v>
-      </c>
+      <c r="J20" s="99"/>
       <c r="K20" s="99"/>
       <c r="L20" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="M20" s="99"/>
-    </row>
-    <row r="21" spans="1:13" ht="13.5" customHeight="1" thickBot="1">
+      <c r="M20" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="W20" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE20" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="13.5" customHeight="1">
       <c r="A21" s="136"/>
-      <c r="B21" s="95"/>
+      <c r="B21" s="95" t="s">
+        <v>147</v>
+      </c>
       <c r="C21" s="96"/>
-      <c r="D21" s="97">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="254"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="103"/>
       <c r="F21" s="99"/>
-      <c r="G21" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="123"/>
-      <c r="I21" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="123"/>
-      <c r="K21" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="L21" s="123"/>
-      <c r="M21" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A22" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="99"/>
+    </row>
+    <row r="22" spans="1:32" ht="13.5" customHeight="1">
+      <c r="A22" s="136"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97">
+        <v>1</v>
+      </c>
+      <c r="E22" s="103"/>
+      <c r="F22" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="G22" s="99"/>
       <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
+      <c r="I22" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="J22" s="99"/>
       <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
+      <c r="L22" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="M22" s="99"/>
-    </row>
-    <row r="23" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A23" s="138"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="116" t="s">
+      <c r="N22" s="99"/>
+      <c r="O22" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="V22" s="99"/>
+      <c r="W22" s="99"/>
+      <c r="X22" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="99"/>
+      <c r="AD22" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="99"/>
+    </row>
+    <row r="23" spans="1:32" ht="13.5" customHeight="1">
+      <c r="A23" s="136"/>
+      <c r="B23" s="249"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="251">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="103"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="99"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="99"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" s="99"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T23" s="99"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="W23" s="99"/>
+      <c r="X23" s="123"/>
+      <c r="Y23" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="123"/>
+      <c r="AB23" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="123"/>
+      <c r="AE23" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF23" s="99"/>
+    </row>
+    <row r="24" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A24" s="136"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="107"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="U24" s="108"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="X24" s="108"/>
+      <c r="Y24" s="108"/>
+      <c r="Z24" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA24" s="108"/>
+      <c r="AB24" s="108"/>
+      <c r="AC24" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A25" s="137" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="110"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="99"/>
+    </row>
+    <row r="26" spans="1:32" ht="13.5" customHeight="1">
+      <c r="A26" s="138"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="174"/>
-      <c r="F23" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-    </row>
-    <row r="24" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A24" s="138"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="116" t="s">
+      <c r="E26" s="174"/>
+      <c r="F26" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="99"/>
+      <c r="AC26" s="99"/>
+      <c r="AD26" s="99"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="99"/>
+    </row>
+    <row r="27" spans="1:32" ht="13.5" customHeight="1">
+      <c r="A27" s="138"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="118"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="K24" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="L24" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="M24" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A25" s="138"/>
-      <c r="B25" s="119" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="123"/>
-    </row>
-    <row r="26" spans="1:13" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A26" s="138"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="121" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" s="122"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="K26" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="L26" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="M26" s="123" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A27" s="137" t="s">
+      <c r="E27" s="118"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="O27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="R27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="S27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="V27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="W27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="X27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE27" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF27" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="13.5" customHeight="1">
+      <c r="A28" s="138"/>
+      <c r="B28" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="252"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="253"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="123"/>
+      <c r="U28" s="123"/>
+      <c r="V28" s="123"/>
+      <c r="W28" s="123"/>
+      <c r="X28" s="123"/>
+      <c r="Y28" s="123"/>
+      <c r="Z28" s="123"/>
+      <c r="AA28" s="123"/>
+      <c r="AB28" s="123"/>
+      <c r="AC28" s="123"/>
+      <c r="AD28" s="123"/>
+      <c r="AE28" s="123"/>
+      <c r="AF28" s="123"/>
+    </row>
+    <row r="29" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A29" s="138"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="121" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="122"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="123"/>
+      <c r="U29" s="123"/>
+      <c r="V29" s="123"/>
+      <c r="W29" s="123"/>
+      <c r="X29" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y29" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z29" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA29" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB29" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC29" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD29" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE29" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF29" s="123" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A30" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="213" t="s">
+      <c r="B30" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="213"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="124" t="s">
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="124" t="s">
+      <c r="G30" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="124" t="s">
+      <c r="H30" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="124" t="s">
+      <c r="I30" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="124" t="s">
+      <c r="J30" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="K27" s="124" t="s">
+      <c r="K30" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="124" t="s">
+      <c r="L30" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="124" t="s">
+      <c r="M30" s="124" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A28" s="139"/>
-      <c r="B28" s="214" t="s">
+      <c r="N30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="R30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="S30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="U30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="V30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="W30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="X30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE30" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF30" s="124" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="13.5" customHeight="1">
+      <c r="A31" s="139"/>
+      <c r="B31" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="214"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="126" t="s">
+      <c r="C31" s="243"/>
+      <c r="D31" s="243"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="126" t="s">
+      <c r="G31" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="126" t="s">
+      <c r="H31" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="126" t="s">
+      <c r="I31" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="126" t="s">
+      <c r="J31" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="126" t="s">
+      <c r="K31" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="126" t="s">
+      <c r="L31" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="M28" s="126" t="s">
+      <c r="M31" s="126" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A29" s="139"/>
-      <c r="B29" s="215" t="s">
+      <c r="N31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="O31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="R31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="U31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="V31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="W31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="X31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE31" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF31" s="126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="13.5" customHeight="1">
+      <c r="A32" s="139"/>
+      <c r="B32" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="215"/>
-      <c r="D29" s="215"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="127">
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="127">
         <v>39139</v>
       </c>
-      <c r="G29" s="127">
+      <c r="G32" s="127">
         <v>39139</v>
       </c>
-      <c r="H29" s="127">
+      <c r="H32" s="127">
+        <v>39140</v>
+      </c>
+      <c r="I32" s="127">
         <v>39141</v>
       </c>
-      <c r="I29" s="127">
+      <c r="J32" s="127">
         <v>39142</v>
       </c>
-      <c r="J29" s="127">
+      <c r="K32" s="127">
+        <v>39143</v>
+      </c>
+      <c r="L32" s="127">
+        <v>39144</v>
+      </c>
+      <c r="M32" s="127">
+        <v>39145</v>
+      </c>
+      <c r="N32" s="127">
+        <v>39146</v>
+      </c>
+      <c r="O32" s="127">
         <v>39147</v>
       </c>
-      <c r="K29" s="127">
+      <c r="P32" s="127">
         <v>39148</v>
       </c>
-      <c r="L29" s="127">
+      <c r="Q32" s="127">
+        <v>39149</v>
+      </c>
+      <c r="R32" s="127">
         <v>39150</v>
       </c>
-      <c r="M29" s="127">
+      <c r="S32" s="127">
         <v>39151</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="11.25" thickBot="1">
-      <c r="A30" s="140"/>
-      <c r="B30" s="216" t="s">
+      <c r="T32" s="127">
+        <v>39152</v>
+      </c>
+      <c r="U32" s="127">
+        <v>39153</v>
+      </c>
+      <c r="V32" s="127">
+        <v>39154</v>
+      </c>
+      <c r="W32" s="127">
+        <v>39155</v>
+      </c>
+      <c r="X32" s="127">
+        <v>39156</v>
+      </c>
+      <c r="Y32" s="127">
+        <v>39157</v>
+      </c>
+      <c r="Z32" s="127">
+        <v>39158</v>
+      </c>
+      <c r="AA32" s="127">
+        <v>39159</v>
+      </c>
+      <c r="AB32" s="127">
+        <v>39160</v>
+      </c>
+      <c r="AC32" s="127">
+        <v>39161</v>
+      </c>
+      <c r="AD32" s="127">
+        <v>39162</v>
+      </c>
+      <c r="AE32" s="127">
+        <v>39163</v>
+      </c>
+      <c r="AF32" s="127">
+        <v>39164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="11.25" thickBot="1">
+      <c r="A33" s="140"/>
+      <c r="B33" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="216"/>
-      <c r="D30" s="216"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-    </row>
-    <row r="31" spans="1:13" ht="11.25" thickTop="1">
-      <c r="A31" s="92"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="84"/>
+      <c r="C33" s="245"/>
+      <c r="D33" s="245"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="129"/>
+      <c r="U33" s="129"/>
+      <c r="V33" s="129"/>
+      <c r="W33" s="129"/>
+      <c r="X33" s="129"/>
+      <c r="Y33" s="129"/>
+      <c r="Z33" s="129"/>
+      <c r="AA33" s="129"/>
+      <c r="AB33" s="129"/>
+      <c r="AC33" s="129"/>
+      <c r="AD33" s="129"/>
+      <c r="AE33" s="129"/>
+      <c r="AF33" s="129"/>
+    </row>
+    <row r="34" spans="1:32" ht="11.25" thickTop="1">
+      <c r="A34" s="92"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:K4"/>
@@ -8770,28 +9693,15 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:M28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31:AF31">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:M27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:AF30">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:M26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:AF29">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -8833,55 +9743,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="210" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="F2" s="243" t="s">
+      <c r="D2" s="211"/>
+      <c r="F2" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="246" t="s">
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="247"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="247"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="247"/>
-      <c r="S2" s="247"/>
-      <c r="T2" s="248"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="214"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="249" t="s">
+      <c r="B3" s="216"/>
+      <c r="C3" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="236" t="s">
+      <c r="D3" s="218"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="218"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -8890,88 +9800,88 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="224"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="220" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="239">
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="225">
         <v>27</v>
       </c>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="240"/>
-      <c r="R4" s="240"/>
-      <c r="S4" s="240"/>
-      <c r="T4" s="241"/>
+      <c r="M4" s="226"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="227"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="246" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="219" t="s">
+      <c r="B5" s="247"/>
+      <c r="C5" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="219" t="s">
+      <c r="D5" s="231"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="222"/>
-      <c r="L5" s="220" t="s">
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="223" t="s">
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="220"/>
-      <c r="S5" s="220"/>
-      <c r="T5" s="224"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="234"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="225">
+      <c r="A6" s="235">
         <f>COUNTIF(F25:HE25,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="227">
+      <c r="B6" s="236"/>
+      <c r="C6" s="237">
         <f>COUNTIF(F25:HE25,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="228"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="227">
+      <c r="D6" s="238"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="237">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="229"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
       <c r="L6" s="90">
         <f>COUNTIF(E24:HE24,"N")</f>
         <v>2</v>
@@ -8984,15 +9894,15 @@
         <f>COUNTIF(E24:HE24,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="230">
+      <c r="O6" s="240">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="228"/>
-      <c r="S6" s="228"/>
-      <c r="T6" s="231"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -9034,7 +9944,7 @@
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -9065,7 +9975,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
@@ -9079,7 +9989,7 @@
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
@@ -9094,7 +10004,7 @@
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99"/>
@@ -9158,7 +10068,7 @@
       <c r="B20" s="114"/>
       <c r="C20" s="115"/>
       <c r="D20" s="116" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E20" s="174"/>
       <c r="F20" s="99" t="s">
@@ -9186,11 +10096,11 @@
     <row r="22" spans="1:9" ht="13.5" customHeight="1">
       <c r="A22" s="138"/>
       <c r="B22" s="119" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="185"/>
+        <v>170</v>
+      </c>
+      <c r="C22" s="252"/>
       <c r="D22" s="121"/>
-      <c r="E22" s="186"/>
+      <c r="E22" s="253"/>
       <c r="F22" s="123"/>
       <c r="G22" s="123"/>
       <c r="H22" s="123"/>
@@ -9200,7 +10110,7 @@
       <c r="B23" s="119"/>
       <c r="C23" s="120"/>
       <c r="D23" s="121" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E23" s="122"/>
       <c r="F23" s="123"/>
@@ -9213,11 +10123,11 @@
       <c r="A24" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="213" t="s">
+      <c r="B24" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="213"/>
-      <c r="D24" s="213"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="242"/>
       <c r="E24" s="175"/>
       <c r="F24" s="124" t="s">
         <v>39</v>
@@ -9231,11 +10141,11 @@
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1">
       <c r="A25" s="139"/>
-      <c r="B25" s="214" t="s">
+      <c r="B25" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="214"/>
-      <c r="D25" s="214"/>
+      <c r="C25" s="243"/>
+      <c r="D25" s="243"/>
       <c r="E25" s="125"/>
       <c r="F25" s="126" t="s">
         <v>43</v>
@@ -9249,11 +10159,11 @@
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1">
       <c r="A26" s="139"/>
-      <c r="B26" s="215" t="s">
+      <c r="B26" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="215"/>
-      <c r="D26" s="215"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="244"/>
       <c r="E26" s="118"/>
       <c r="F26" s="127">
         <v>39139</v>
@@ -9267,11 +10177,11 @@
     </row>
     <row r="27" spans="1:9" ht="11.25" thickBot="1">
       <c r="A27" s="140"/>
-      <c r="B27" s="216" t="s">
+      <c r="B27" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="216"/>
-      <c r="D27" s="216"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="245"/>
       <c r="E27" s="128"/>
       <c r="F27" s="129"/>
       <c r="G27" s="129"/>
@@ -9285,6 +10195,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:K4"/>
@@ -9297,19 +10220,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:H24">
@@ -9336,7 +10246,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -9360,55 +10270,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="210" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="F2" s="243" t="s">
+      <c r="D2" s="211"/>
+      <c r="F2" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="246" t="s">
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="212" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="247"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="247"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="247"/>
-      <c r="S2" s="247"/>
-      <c r="T2" s="248"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="214"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="249" t="s">
+      <c r="B3" s="216"/>
+      <c r="C3" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="236" t="s">
+      <c r="D3" s="218"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="218"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -9417,88 +10327,88 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="224"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="220" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="239">
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="225">
         <v>27</v>
       </c>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="240"/>
-      <c r="R4" s="240"/>
-      <c r="S4" s="240"/>
-      <c r="T4" s="241"/>
+      <c r="M4" s="226"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="227"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="246" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="219" t="s">
+      <c r="B5" s="247"/>
+      <c r="C5" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="219" t="s">
+      <c r="D5" s="231"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="222"/>
-      <c r="L5" s="220" t="s">
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="223" t="s">
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="220"/>
-      <c r="S5" s="220"/>
-      <c r="T5" s="224"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="234"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="225">
+      <c r="A6" s="235">
         <f>COUNTIF(F25:HE25,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="227">
+      <c r="B6" s="236"/>
+      <c r="C6" s="237">
         <f>COUNTIF(F25:HE25,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="228"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="227">
+      <c r="D6" s="238"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="237">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="229"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
       <c r="L6" s="90">
         <f>COUNTIF(E24:HE24,"N")</f>
         <v>1</v>
@@ -9511,15 +10421,15 @@
         <f>COUNTIF(E24:HE24,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="230">
+      <c r="O6" s="240">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="228"/>
-      <c r="S6" s="228"/>
-      <c r="T6" s="231"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -9561,7 +10471,7 @@
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -9592,7 +10502,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
@@ -9606,7 +10516,7 @@
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
@@ -9684,7 +10594,7 @@
       <c r="B20" s="114"/>
       <c r="C20" s="115"/>
       <c r="D20" s="116" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E20" s="174"/>
       <c r="F20" s="99" t="s">
@@ -9712,11 +10622,11 @@
     <row r="22" spans="1:8" ht="13.5" customHeight="1">
       <c r="A22" s="138"/>
       <c r="B22" s="119" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="185"/>
+        <v>170</v>
+      </c>
+      <c r="C22" s="252"/>
       <c r="D22" s="121"/>
-      <c r="E22" s="186"/>
+      <c r="E22" s="253"/>
       <c r="F22" s="123"/>
       <c r="G22" s="123"/>
       <c r="H22" s="123"/>
@@ -9726,7 +10636,7 @@
       <c r="B23" s="119"/>
       <c r="C23" s="120"/>
       <c r="D23" s="121" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E23" s="122"/>
       <c r="F23" s="123"/>
@@ -9739,11 +10649,11 @@
       <c r="A24" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="213" t="s">
+      <c r="B24" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="213"/>
-      <c r="D24" s="213"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="242"/>
       <c r="E24" s="175"/>
       <c r="F24" s="124" t="s">
         <v>39</v>
@@ -9757,11 +10667,11 @@
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1">
       <c r="A25" s="139"/>
-      <c r="B25" s="214" t="s">
+      <c r="B25" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="214"/>
-      <c r="D25" s="214"/>
+      <c r="C25" s="243"/>
+      <c r="D25" s="243"/>
       <c r="E25" s="125"/>
       <c r="F25" s="126" t="s">
         <v>43</v>
@@ -9775,11 +10685,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1">
       <c r="A26" s="139"/>
-      <c r="B26" s="215" t="s">
+      <c r="B26" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="215"/>
-      <c r="D26" s="215"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="244"/>
       <c r="E26" s="118"/>
       <c r="F26" s="127">
         <v>39139</v>
@@ -9793,11 +10703,11 @@
     </row>
     <row r="27" spans="1:8" ht="11.25" thickBot="1">
       <c r="A27" s="140"/>
-      <c r="B27" s="216" t="s">
+      <c r="B27" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="216"/>
-      <c r="D27" s="216"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="245"/>
       <c r="E27" s="128"/>
       <c r="F27" s="129"/>
       <c r="G27" s="129"/>
@@ -9811,6 +10721,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:K4"/>
@@ -9823,19 +10746,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:H25">
@@ -9886,55 +10796,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="210" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="F2" s="243" t="s">
+      <c r="D2" s="211"/>
+      <c r="F2" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="246" t="s">
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="212" t="s">
         <v>138</v>
       </c>
-      <c r="M2" s="247"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="247"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="247"/>
-      <c r="S2" s="247"/>
-      <c r="T2" s="248"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="214"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="249" t="s">
+      <c r="B3" s="216"/>
+      <c r="C3" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="236" t="s">
+      <c r="D3" s="218"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="218"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -9943,116 +10853,116 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234">
+      <c r="B4" s="216"/>
+      <c r="C4" s="223">
         <v>300</v>
       </c>
-      <c r="D4" s="235"/>
+      <c r="D4" s="224"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="220" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="239">
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="225">
         <v>27</v>
       </c>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="240"/>
-      <c r="R4" s="240"/>
-      <c r="S4" s="240"/>
-      <c r="T4" s="241"/>
+      <c r="M4" s="226"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="227"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="232" t="s">
+      <c r="A5" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="233"/>
-      <c r="C5" s="252" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="228" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="252"/>
-      <c r="N5" s="252"/>
-      <c r="O5" s="252"/>
-      <c r="P5" s="252"/>
-      <c r="Q5" s="252"/>
-      <c r="R5" s="252"/>
-      <c r="S5" s="252"/>
-      <c r="T5" s="252"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="229"/>
+      <c r="K5" s="229"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="228"/>
+      <c r="Q5" s="228"/>
+      <c r="R5" s="228"/>
+      <c r="S5" s="228"/>
+      <c r="T5" s="228"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="246" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="219" t="s">
+      <c r="B6" s="247"/>
+      <c r="C6" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="220"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="219" t="s">
+      <c r="D6" s="231"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="220" t="s">
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="220"/>
-      <c r="N6" s="220"/>
-      <c r="O6" s="223" t="s">
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="220"/>
-      <c r="R6" s="220"/>
-      <c r="S6" s="220"/>
-      <c r="T6" s="224"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="231"/>
+      <c r="S6" s="231"/>
+      <c r="T6" s="234"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="225">
+      <c r="A7" s="235">
         <f>COUNTIF(F26:HE26,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="226"/>
-      <c r="C7" s="227">
+      <c r="B7" s="236"/>
+      <c r="C7" s="237">
         <f>COUNTIF(F26:HE26,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="228"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="227">
+      <c r="D7" s="238"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="237">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="229"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="239"/>
       <c r="L7" s="90">
         <f>COUNTIF(E25:HE25,"N")</f>
         <v>1</v>
@@ -10065,15 +10975,15 @@
         <f>COUNTIF(E25:HE25,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="230">
+      <c r="O7" s="240">
         <f>COUNTA(E9:HH9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="228"/>
-      <c r="Q7" s="228"/>
-      <c r="R7" s="228"/>
-      <c r="S7" s="228"/>
-      <c r="T7" s="231"/>
+      <c r="P7" s="238"/>
+      <c r="Q7" s="238"/>
+      <c r="R7" s="238"/>
+      <c r="S7" s="238"/>
+      <c r="T7" s="241"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -10115,7 +11025,7 @@
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
@@ -10146,7 +11056,7 @@
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C14" s="96"/>
       <c r="D14" s="97"/>
@@ -10160,7 +11070,7 @@
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99" t="s">
@@ -10238,7 +11148,7 @@
       <c r="B21" s="114"/>
       <c r="C21" s="115"/>
       <c r="D21" s="116" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E21" s="174"/>
       <c r="F21" s="99" t="s">
@@ -10266,11 +11176,11 @@
     <row r="23" spans="1:9" ht="13.5" customHeight="1">
       <c r="A23" s="138"/>
       <c r="B23" s="119" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="185"/>
+        <v>170</v>
+      </c>
+      <c r="C23" s="252"/>
       <c r="D23" s="121"/>
-      <c r="E23" s="186"/>
+      <c r="E23" s="253"/>
       <c r="F23" s="123"/>
       <c r="G23" s="123"/>
       <c r="H23" s="123"/>
@@ -10280,7 +11190,7 @@
       <c r="B24" s="119"/>
       <c r="C24" s="120"/>
       <c r="D24" s="121" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E24" s="122"/>
       <c r="F24" s="123"/>
@@ -10293,11 +11203,11 @@
       <c r="A25" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="213" t="s">
+      <c r="B25" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="213"/>
-      <c r="D25" s="213"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="242"/>
       <c r="E25" s="175"/>
       <c r="F25" s="124" t="s">
         <v>39</v>
@@ -10311,11 +11221,11 @@
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1">
       <c r="A26" s="139"/>
-      <c r="B26" s="214" t="s">
+      <c r="B26" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="214"/>
-      <c r="D26" s="214"/>
+      <c r="C26" s="243"/>
+      <c r="D26" s="243"/>
       <c r="E26" s="125"/>
       <c r="F26" s="126" t="s">
         <v>43</v>
@@ -10329,11 +11239,11 @@
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1">
       <c r="A27" s="139"/>
-      <c r="B27" s="215" t="s">
+      <c r="B27" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="215"/>
-      <c r="D27" s="215"/>
+      <c r="C27" s="244"/>
+      <c r="D27" s="244"/>
       <c r="E27" s="118"/>
       <c r="F27" s="127">
         <v>39139</v>
@@ -10347,11 +11257,11 @@
     </row>
     <row r="28" spans="1:9" ht="11.25" thickBot="1">
       <c r="A28" s="140"/>
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="216"/>
-      <c r="D28" s="216"/>
+      <c r="C28" s="245"/>
+      <c r="D28" s="245"/>
       <c r="E28" s="128"/>
       <c r="F28" s="129"/>
       <c r="G28" s="129"/>
@@ -10365,6 +11275,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -10373,25 +11302,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:H25">
@@ -10415,10 +11325,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -10442,55 +11352,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="210" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="F2" s="243" t="s">
+      <c r="D2" s="211"/>
+      <c r="F2" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="246" t="s">
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="212" t="s">
         <v>140</v>
       </c>
-      <c r="M2" s="247"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="247"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="247"/>
-      <c r="S2" s="247"/>
-      <c r="T2" s="248"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="214"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="249" t="s">
+      <c r="B3" s="216"/>
+      <c r="C3" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="236" t="s">
+      <c r="D3" s="218"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="218"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -10499,137 +11409,137 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234">
+      <c r="B4" s="216"/>
+      <c r="C4" s="223">
         <v>300</v>
       </c>
-      <c r="D4" s="235"/>
+      <c r="D4" s="224"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="220" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="239">
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="225">
         <v>28</v>
       </c>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="240"/>
-      <c r="R4" s="240"/>
-      <c r="S4" s="240"/>
-      <c r="T4" s="241"/>
+      <c r="M4" s="226"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="227"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="232" t="s">
+      <c r="A5" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="233"/>
-      <c r="C5" s="252" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="228" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="252"/>
-      <c r="N5" s="252"/>
-      <c r="O5" s="252"/>
-      <c r="P5" s="252"/>
-      <c r="Q5" s="252"/>
-      <c r="R5" s="252"/>
-      <c r="S5" s="252"/>
-      <c r="T5" s="252"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="229"/>
+      <c r="K5" s="229"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="228"/>
+      <c r="Q5" s="228"/>
+      <c r="R5" s="228"/>
+      <c r="S5" s="228"/>
+      <c r="T5" s="228"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="246" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="219" t="s">
+      <c r="B6" s="247"/>
+      <c r="C6" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="220"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="219" t="s">
+      <c r="D6" s="231"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="220" t="s">
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="220"/>
-      <c r="N6" s="220"/>
-      <c r="O6" s="223" t="s">
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="220"/>
-      <c r="R6" s="220"/>
-      <c r="S6" s="220"/>
-      <c r="T6" s="224"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="231"/>
+      <c r="S6" s="231"/>
+      <c r="T6" s="234"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="225">
-        <f>COUNTIF(F20:HC20,"P")</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="226"/>
-      <c r="C7" s="227">
-        <f>COUNTIF(F20:HC20,"F")</f>
+      <c r="A7" s="235">
+        <f>COUNTIF(F21:HD21,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="236"/>
+      <c r="C7" s="237">
+        <f>COUNTIF(F21:HD21,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="228"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="227">
+      <c r="D7" s="238"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="237">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="229"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="239"/>
       <c r="L7" s="90">
-        <f>COUNTIF(E19:HC19,"N")</f>
-        <v>1</v>
+        <f>COUNTIF(E20:HD20,"N")</f>
+        <v>2</v>
       </c>
       <c r="M7" s="90">
-        <f>COUNTIF(E19:HC19,"A")</f>
+        <f>COUNTIF(E20:HD20,"A")</f>
         <v>0</v>
       </c>
       <c r="N7" s="90">
-        <f>COUNTIF(E19:HC19,"B")</f>
+        <f>COUNTIF(E20:HD20,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="230">
-        <f>COUNTA(E9:HF9)</f>
-        <v>1</v>
-      </c>
-      <c r="P7" s="228"/>
-      <c r="Q7" s="228"/>
-      <c r="R7" s="228"/>
-      <c r="S7" s="228"/>
-      <c r="T7" s="231"/>
+      <c r="O7" s="240">
+        <f>COUNTA(E9:HG9)</f>
+        <v>2</v>
+      </c>
+      <c r="P7" s="238"/>
+      <c r="Q7" s="238"/>
+      <c r="R7" s="238"/>
+      <c r="S7" s="238"/>
+      <c r="T7" s="241"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -10642,9 +11552,12 @@
       <c r="F9" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="82"/>
+      <c r="G9" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="93"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="82"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="135" t="s">
@@ -10657,144 +11570,197 @@
       <c r="D10" s="97"/>
       <c r="E10" s="98"/>
       <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
-      <c r="H11" s="89"/>
+      <c r="G11" s="99"/>
+      <c r="I11" s="89"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
       <c r="B12" s="95"/>
       <c r="C12" s="96"/>
       <c r="D12" s="97" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E12" s="100"/>
       <c r="F12" s="99" t="s">
         <v>75</v>
       </c>
+      <c r="G12" s="99"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95"/>
       <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="103"/>
+      <c r="D13" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="101"/>
       <c r="F13" s="99"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="G13" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="108"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A15" s="137" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A15" s="136"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A16" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B16" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A16" s="138"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="116" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="174"/>
-      <c r="F16" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1">
       <c r="A17" s="138"/>
       <c r="B17" s="114"/>
-      <c r="C17" s="117"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="174"/>
+      <c r="F17" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="99"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A18" s="138"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="118"/>
-      <c r="F17" s="99"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A18" s="138"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A19" s="137" t="s">
+      <c r="E18" s="118"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A19" s="138"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A20" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="213" t="s">
+      <c r="B20" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="213"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="124" t="s">
+      <c r="C20" s="242"/>
+      <c r="D20" s="242"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="124" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A20" s="139"/>
-      <c r="B20" s="214" t="s">
+      <c r="G20" s="124" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A21" s="139"/>
+      <c r="B21" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="214"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126" t="s">
+      <c r="C21" s="243"/>
+      <c r="D21" s="243"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A21" s="139"/>
-      <c r="B21" s="215" t="s">
+      <c r="G21" s="126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A22" s="139"/>
+      <c r="B22" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="215"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="127">
+      <c r="C22" s="244"/>
+      <c r="D22" s="244"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="127">
         <v>39139</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="11.25" thickBot="1">
-      <c r="A22" s="140"/>
-      <c r="B22" s="216" t="s">
+      <c r="G22" s="127">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="11.25" thickBot="1">
+      <c r="A23" s="140"/>
+      <c r="B23" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="216"/>
-      <c r="D22" s="216"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-    </row>
-    <row r="23" spans="1:6" ht="11.25" thickTop="1">
-      <c r="A23" s="92"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="84"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="245"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+    </row>
+    <row r="24" spans="1:7" ht="11.25" thickTop="1">
+      <c r="A24" s="92"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -10803,34 +11769,15 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G21">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:G20">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:G19">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Question_Unit-Test-Case.xlsx
+++ b/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Question_Unit-Test-Case.xlsx
@@ -9,106 +9,96 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
     <sheet name="表紙" sheetId="4" r:id="rId2"/>
     <sheet name="機能一覧" sheetId="5" r:id="rId3"/>
     <sheet name="テスト報告" sheetId="6" r:id="rId4"/>
-    <sheet name="generateTest" sheetId="21" r:id="rId5"/>
-    <sheet name="saveQuestion" sheetId="22" r:id="rId6"/>
-    <sheet name="findQuestionById" sheetId="23" r:id="rId7"/>
-    <sheet name="findQuestionByCode" sheetId="24" r:id="rId8"/>
-    <sheet name="findAllQuestion" sheetId="25" r:id="rId9"/>
-    <sheet name="updateQuestion" sheetId="26" r:id="rId10"/>
-    <sheet name="deleteQuestion" sheetId="27" r:id="rId11"/>
+    <sheet name="saveQuestion" sheetId="22" r:id="rId5"/>
+    <sheet name="findQuestionById" sheetId="23" r:id="rId6"/>
+    <sheet name="findQuestionByCode" sheetId="24" r:id="rId7"/>
+    <sheet name="findAllQuestion" sheetId="25" r:id="rId8"/>
+    <sheet name="updateQuestion" sheetId="26" r:id="rId9"/>
+    <sheet name="deleteQuestion" sheetId="27" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="ACTION" localSheetId="10">#REF!</definedName>
-    <definedName name="ACTION" localSheetId="8">#REF!</definedName>
+    <definedName name="ACTION" localSheetId="9">#REF!</definedName>
     <definedName name="ACTION" localSheetId="7">#REF!</definedName>
     <definedName name="ACTION" localSheetId="6">#REF!</definedName>
+    <definedName name="ACTION" localSheetId="5">#REF!</definedName>
     <definedName name="ACTION" localSheetId="4">#REF!</definedName>
-    <definedName name="ACTION" localSheetId="5">#REF!</definedName>
-    <definedName name="ACTION" localSheetId="9">#REF!</definedName>
+    <definedName name="ACTION" localSheetId="8">#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
-    <definedName name="deleteLesson" localSheetId="10">#REF!</definedName>
-    <definedName name="deleteLesson" localSheetId="8">#REF!</definedName>
+    <definedName name="deleteLesson" localSheetId="9">#REF!</definedName>
     <definedName name="deleteLesson" localSheetId="7">#REF!</definedName>
     <definedName name="deleteLesson" localSheetId="6">#REF!</definedName>
+    <definedName name="deleteLesson" localSheetId="5">#REF!</definedName>
     <definedName name="deleteLesson" localSheetId="4">#REF!</definedName>
-    <definedName name="deleteLesson" localSheetId="5">#REF!</definedName>
-    <definedName name="deleteLesson" localSheetId="9">#REF!</definedName>
+    <definedName name="deleteLesson" localSheetId="8">#REF!</definedName>
     <definedName name="deleteLesson">#REF!</definedName>
     <definedName name="deleteReport">#REF!</definedName>
     <definedName name="findUserById">#REF!</definedName>
-    <definedName name="generateTest" localSheetId="10">#REF!</definedName>
-    <definedName name="generateTest" localSheetId="8">#REF!</definedName>
+    <definedName name="generateTest" localSheetId="9">#REF!</definedName>
     <definedName name="generateTest" localSheetId="7">#REF!</definedName>
     <definedName name="generateTest" localSheetId="6">#REF!</definedName>
     <definedName name="generateTest" localSheetId="5">#REF!</definedName>
-    <definedName name="generateTest" localSheetId="9">#REF!</definedName>
+    <definedName name="generateTest" localSheetId="4">#REF!</definedName>
+    <definedName name="generateTest" localSheetId="8">#REF!</definedName>
     <definedName name="generateTest">#REF!</definedName>
     <definedName name="getAllReports">#REF!</definedName>
-    <definedName name="getLessonVersion" localSheetId="10">#REF!</definedName>
-    <definedName name="getLessonVersion" localSheetId="8">#REF!</definedName>
+    <definedName name="getLessonVersion" localSheetId="9">#REF!</definedName>
     <definedName name="getLessonVersion" localSheetId="7">#REF!</definedName>
     <definedName name="getLessonVersion" localSheetId="6">#REF!</definedName>
+    <definedName name="getLessonVersion" localSheetId="5">#REF!</definedName>
     <definedName name="getLessonVersion" localSheetId="4">#REF!</definedName>
-    <definedName name="getLessonVersion" localSheetId="5">#REF!</definedName>
-    <definedName name="getLessonVersion" localSheetId="9">#REF!</definedName>
+    <definedName name="getLessonVersion" localSheetId="8">#REF!</definedName>
     <definedName name="getLessonVersion">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">deleteQuestion!$A$1:$T$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">findAllQuestion!$A$1:$T$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">findQuestionByCode!$A$1:$T$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">findQuestionById!$A$1:$T$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">generateTest!$A$1:$T$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">saveQuestion!$A$1:$T$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">updateQuestion!$A$1:$T$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">deleteQuestion!$A$1:$T$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">findAllQuestion!$A$1:$T$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">findQuestionByCode!$A$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">findQuestionById!$A$1:$T$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">saveQuestion!$A$1:$T$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">updateQuestion!$A$1:$T$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ガイドライン!$A$1:$A$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト報告!$A$1:$I$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">機能一覧!$A$1:$H$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト報告!$A$1:$I$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">機能一覧!$A$1:$H$38</definedName>
     <definedName name="readReport">#REF!</definedName>
-    <definedName name="reportLesson" localSheetId="10">#REF!</definedName>
-    <definedName name="reportLesson" localSheetId="8">#REF!</definedName>
+    <definedName name="reportLesson" localSheetId="9">#REF!</definedName>
     <definedName name="reportLesson" localSheetId="7">#REF!</definedName>
     <definedName name="reportLesson" localSheetId="6">#REF!</definedName>
+    <definedName name="reportLesson" localSheetId="5">#REF!</definedName>
     <definedName name="reportLesson" localSheetId="4">#REF!</definedName>
-    <definedName name="reportLesson" localSheetId="5">#REF!</definedName>
-    <definedName name="reportLesson" localSheetId="9">#REF!</definedName>
+    <definedName name="reportLesson" localSheetId="8">#REF!</definedName>
     <definedName name="reportLesson">#REF!</definedName>
-    <definedName name="updateLesson" localSheetId="10">#REF!</definedName>
-    <definedName name="updateLesson" localSheetId="8">#REF!</definedName>
+    <definedName name="updateLesson" localSheetId="9">#REF!</definedName>
     <definedName name="updateLesson" localSheetId="7">#REF!</definedName>
     <definedName name="updateLesson" localSheetId="6">#REF!</definedName>
+    <definedName name="updateLesson" localSheetId="5">#REF!</definedName>
     <definedName name="updateLesson" localSheetId="4">#REF!</definedName>
-    <definedName name="updateLesson" localSheetId="5">#REF!</definedName>
-    <definedName name="updateLesson" localSheetId="9">#REF!</definedName>
+    <definedName name="updateLesson" localSheetId="8">#REF!</definedName>
     <definedName name="updateLesson">#REF!</definedName>
-    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="10" hidden="1">deleteQuestion!$E:$E</definedName>
-    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="8" hidden="1">findAllQuestion!$E:$E</definedName>
-    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="7" hidden="1">findQuestionByCode!$E:$E</definedName>
-    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="6" hidden="1">findQuestionById!$E:$E</definedName>
-    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="4" hidden="1">generateTest!$E:$E</definedName>
-    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="5" hidden="1">saveQuestion!$E:$E</definedName>
-    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="9" hidden="1">updateQuestion!$E:$E</definedName>
+    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="9" hidden="1">deleteQuestion!$E:$E</definedName>
+    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="7" hidden="1">findAllQuestion!$E:$E</definedName>
+    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="6" hidden="1">findQuestionByCode!$E:$E</definedName>
+    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="5" hidden="1">findQuestionById!$E:$E</definedName>
+    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="4" hidden="1">saveQuestion!$E:$E</definedName>
+    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="8" hidden="1">updateQuestion!$E:$E</definedName>
     <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.PrintArea" localSheetId="3" hidden="1">テスト報告!$A:$I</definedName>
-    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="10" hidden="1">deleteQuestion!$E:$E</definedName>
-    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="8" hidden="1">findAllQuestion!$E:$E</definedName>
-    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="7" hidden="1">findQuestionByCode!$E:$E</definedName>
-    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="6" hidden="1">findQuestionById!$E:$E</definedName>
-    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="4" hidden="1">generateTest!$E:$E</definedName>
-    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="5" hidden="1">saveQuestion!$E:$E</definedName>
-    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="9" hidden="1">updateQuestion!$E:$E</definedName>
+    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="9" hidden="1">deleteQuestion!$E:$E</definedName>
+    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="7" hidden="1">findAllQuestion!$E:$E</definedName>
+    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="6" hidden="1">findQuestionByCode!$E:$E</definedName>
+    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="5" hidden="1">findQuestionById!$E:$E</definedName>
+    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="4" hidden="1">saveQuestion!$E:$E</definedName>
+    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="8" hidden="1">updateQuestion!$E:$E</definedName>
     <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.PrintArea" localSheetId="3" hidden="1">テスト報告!$A:$I</definedName>
-    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="10" hidden="1">deleteQuestion!$E:$E</definedName>
-    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="8" hidden="1">findAllQuestion!$E:$E</definedName>
-    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="7" hidden="1">findQuestionByCode!$E:$E</definedName>
-    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="6" hidden="1">findQuestionById!$E:$E</definedName>
-    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="4" hidden="1">generateTest!$E:$E</definedName>
-    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="5" hidden="1">saveQuestion!$E:$E</definedName>
-    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="9" hidden="1">updateQuestion!$E:$E</definedName>
+    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="9" hidden="1">deleteQuestion!$E:$E</definedName>
+    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="7" hidden="1">findAllQuestion!$E:$E</definedName>
+    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="6" hidden="1">findQuestionByCode!$E:$E</definedName>
+    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="5" hidden="1">findQuestionById!$E:$E</definedName>
+    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="4" hidden="1">saveQuestion!$E:$E</definedName>
+    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="8" hidden="1">updateQuestion!$E:$E</definedName>
     <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.PrintArea" localSheetId="3" hidden="1">テスト報告!$A:$I</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -238,10 +228,26 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Nguyen Hoang Anh</author>
     <author>ANa</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not mandatory
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -375,47 +381,8 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Nguyen Hoang Anh</author>
-    <author>ANa</author>
-  </authors>
-  <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not mandatory
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Not mandatory</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="156">
   <si>
     <r>
       <rPr>
@@ -1279,9 +1246,6 @@
     </r>
   </si>
   <si>
-    <t>courseId</t>
-  </si>
-  <si>
     <t xml:space="preserve">Server, Database
 </t>
   </si>
@@ -1319,63 +1283,30 @@
     <t>Veazy_Question_Unit_Test_Case_v1.0</t>
   </si>
   <si>
-    <t>QuestionBankServiceImpl</t>
-  </si>
-  <si>
-    <t>generateTest</t>
-  </si>
-  <si>
-    <t>Function14</t>
-  </si>
-  <si>
     <t>QuestionServiceImpl</t>
   </si>
   <si>
     <t>saveQuestion</t>
   </si>
   <si>
-    <t>Function15</t>
-  </si>
-  <si>
     <t>findQuestionById</t>
   </si>
   <si>
-    <t>Function16</t>
-  </si>
-  <si>
     <t>findQuestionByCode</t>
   </si>
   <si>
-    <t>Function17</t>
-  </si>
-  <si>
     <t>findAllQuestion</t>
   </si>
   <si>
-    <t>Function18</t>
-  </si>
-  <si>
     <t>updateQuestion</t>
   </si>
   <si>
-    <t>Function19</t>
-  </si>
-  <si>
     <t>deleteQuestion</t>
   </si>
   <si>
-    <t>Function20</t>
-  </si>
-  <si>
     <t>List&lt;QuestionModel&gt;</t>
   </si>
   <si>
-    <t>examSkill</t>
-  </si>
-  <si>
-    <t>questionNumber</t>
-  </si>
-  <si>
     <t>QuestionModel</t>
   </si>
   <si>
@@ -1394,12 +1325,6 @@
     <t>valid question Code</t>
   </si>
   <si>
-    <t>Question has been added</t>
-  </si>
-  <si>
-    <t>No question has been added</t>
-  </si>
-  <si>
     <t xml:space="preserve"> singular question</t>
   </si>
   <si>
@@ -1412,82 +1337,31 @@
     <t>Application Context Initialized</t>
   </si>
   <si>
-    <t>UTCID04</t>
-  </si>
-  <si>
-    <t>UTCID05</t>
-  </si>
-  <si>
-    <t>UTCID06</t>
-  </si>
-  <si>
-    <t>UTCID07</t>
-  </si>
-  <si>
-    <t>UTCID08</t>
-  </si>
-  <si>
-    <t>UTCID09</t>
-  </si>
-  <si>
-    <t>UTCID10</t>
-  </si>
-  <si>
-    <t>UTCID11</t>
-  </si>
-  <si>
-    <t>UTCID12</t>
-  </si>
-  <si>
     <t>Exception</t>
   </si>
   <si>
     <t>exception</t>
   </si>
   <si>
-    <t>UTCID13</t>
-  </si>
-  <si>
-    <t>UTCID14</t>
-  </si>
-  <si>
-    <t>UTCID15</t>
-  </si>
-  <si>
-    <t>UTCID16</t>
-  </si>
-  <si>
-    <t>UTCID17</t>
-  </si>
-  <si>
-    <t>UTCID18</t>
-  </si>
-  <si>
-    <t>UTCID19</t>
-  </si>
-  <si>
-    <t>UTCID20</t>
-  </si>
-  <si>
-    <t>UTCID21</t>
-  </si>
-  <si>
-    <t>UTCID22</t>
-  </si>
-  <si>
-    <t>UTCID23</t>
-  </si>
-  <si>
-    <t>UTCID24</t>
-  </si>
-  <si>
-    <t>UTCID25</t>
-  </si>
-  <si>
-    <t>UTCID26</t>
-  </si>
-  <si>
-    <t>UTCID27</t>
+    <t>question answer update</t>
+  </si>
+  <si>
+    <t>Function2</t>
+  </si>
+  <si>
+    <t>Function3</t>
+  </si>
+  <si>
+    <t>Function4</t>
+  </si>
+  <si>
+    <t>Function5</t>
+  </si>
+  <si>
+    <t>Function6</t>
+  </si>
+  <si>
+    <t>Function7</t>
   </si>
 </sst>
 </file>
@@ -3142,7 +3016,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -3620,6 +3494,11 @@
     <xf numFmtId="14" fontId="44" fillId="29" borderId="16" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="50" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="15" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="42" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3696,6 +3575,93 @@
     <xf numFmtId="14" fontId="44" fillId="24" borderId="11" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="37" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="58" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="45" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="58" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="60" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="73" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3717,12 +3683,6 @@
     <xf numFmtId="49" fontId="38" fillId="30" borderId="76" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3732,104 +3692,12 @@
     <xf numFmtId="0" fontId="38" fillId="30" borderId="63" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="58" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="60" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="65" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="58" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="45" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="37" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="49" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="50" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -4057,7 +3925,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4079,15 +3949,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>テスト報告!$F$21:$H$21</c:f>
+              <c:f>テスト報告!$F$20:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4194,7 +4064,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>テスト報告!$F$20:$H$20</c:f>
+              <c:f>テスト報告!$F$19:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4503,15 +4373,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>テスト報告!$F$21:$H$21</c:f>
+              <c:f>テスト報告!$F$20:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4765,7 +4635,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4787,12 +4659,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>テスト報告!$C$21:$E$21</c:f>
+              <c:f>テスト報告!$C$20:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4903,7 +4775,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>テスト報告!$C$20:$E$20</c:f>
+              <c:f>テスト報告!$C$19:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5215,12 +5087,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>テスト報告!$C$21:$E$21</c:f>
+              <c:f>テスト報告!$C$20:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5435,13 +5307,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5467,13 +5339,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6060,10 +5932,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -6087,55 +5959,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="240" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="210" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="211"/>
-      <c r="F2" s="209" t="s">
+      <c r="B2" s="241"/>
+      <c r="C2" s="242" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="243"/>
+      <c r="F2" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="212" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="244" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="246"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
+      <c r="B3" s="231"/>
+      <c r="C3" s="247" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
+      <c r="D3" s="248"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="248"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -6144,137 +6016,137 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="230" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="223">
+      <c r="B4" s="231"/>
+      <c r="C4" s="232">
         <v>300</v>
       </c>
-      <c r="D4" s="224"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="234" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="225">
-        <v>28</v>
-      </c>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
+      <c r="G4" s="235"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="237">
+        <v>29</v>
+      </c>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="239"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="230" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="228" t="s">
+      <c r="B5" s="231"/>
+      <c r="C5" s="250" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="228"/>
-      <c r="S5" s="228"/>
-      <c r="T5" s="228"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="250"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="246" t="s">
+      <c r="A6" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="247"/>
-      <c r="C6" s="230" t="s">
+      <c r="B6" s="216"/>
+      <c r="C6" s="217" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="231"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="230" t="s">
+      <c r="D6" s="218"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="232"/>
-      <c r="L6" s="231" t="s">
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="220"/>
+      <c r="L6" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="233" t="s">
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="231"/>
-      <c r="S6" s="231"/>
-      <c r="T6" s="234"/>
+      <c r="P6" s="218"/>
+      <c r="Q6" s="218"/>
+      <c r="R6" s="218"/>
+      <c r="S6" s="218"/>
+      <c r="T6" s="222"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235">
-        <f>COUNTIF(F19:HD19,"P")</f>
-        <v>2</v>
-      </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="237">
-        <f>COUNTIF(F19:HD19,"F")</f>
+      <c r="A7" s="223">
+        <f>COUNTIF(F18:HC18,"P")</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="224"/>
+      <c r="C7" s="225">
+        <f>COUNTIF(F18:HC18,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="237">
+      <c r="D7" s="226"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="225">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="239"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="227"/>
       <c r="L7" s="90">
-        <f>COUNTIF(E18:HD18,"N")</f>
-        <v>2</v>
+        <f>COUNTIF(E17:HC17,"N")</f>
+        <v>1</v>
       </c>
       <c r="M7" s="90">
-        <f>COUNTIF(E18:HD18,"A")</f>
+        <f>COUNTIF(E17:HC17,"A")</f>
         <v>0</v>
       </c>
       <c r="N7" s="90">
-        <f>COUNTIF(E18:HD18,"B")</f>
+        <f>COUNTIF(E17:HC17,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="240">
-        <f>COUNTA(E9:HG9)</f>
-        <v>2</v>
-      </c>
-      <c r="P7" s="238"/>
-      <c r="Q7" s="238"/>
-      <c r="R7" s="238"/>
-      <c r="S7" s="238"/>
-      <c r="T7" s="241"/>
+      <c r="O7" s="228">
+        <f>COUNTA(E9:HF9)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="226"/>
+      <c r="Q7" s="226"/>
+      <c r="R7" s="226"/>
+      <c r="S7" s="226"/>
+      <c r="T7" s="229"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -6287,12 +6159,9 @@
       <c r="F9" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="82"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="135" t="s">
@@ -6305,19 +6174,17 @@
       <c r="D10" s="97"/>
       <c r="E10" s="98"/>
       <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="I11" s="89"/>
+      <c r="H11" s="89"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
@@ -6326,7 +6193,6 @@
       <c r="D12" s="97"/>
       <c r="E12" s="100"/>
       <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
@@ -6335,141 +6201,94 @@
       <c r="D13" s="97"/>
       <c r="E13" s="101"/>
       <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C14" s="96"/>
       <c r="D14" s="97"/>
       <c r="E14" s="103"/>
       <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="99"/>
-      <c r="J15" s="89"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+      <c r="I15" s="89"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A16" s="136"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="176" t="s">
-        <v>158</v>
-      </c>
+      <c r="D16" s="176"/>
       <c r="E16" s="103"/>
       <c r="F16" s="99"/>
-      <c r="G16" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="102"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A18" s="137" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A17" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="242" t="s">
+      <c r="B17" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="124" t="s">
+      <c r="C17" s="211"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="124" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1">
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A18" s="139"/>
+      <c r="B18" s="212" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="212"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1">
       <c r="A19" s="139"/>
-      <c r="B19" s="243" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A20" s="139"/>
-      <c r="B20" s="244" t="s">
+      <c r="B19" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="244"/>
-      <c r="D20" s="244"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="127">
+      <c r="C19" s="213"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="127">
         <v>39139</v>
       </c>
-      <c r="G20" s="127">
-        <v>39139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="11.25" thickBot="1">
-      <c r="A21" s="140"/>
-      <c r="B21" s="245" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="11.25" thickBot="1">
+      <c r="A20" s="140"/>
+      <c r="B20" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="245"/>
-      <c r="D21" s="245"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-    </row>
-    <row r="22" spans="1:8" ht="11.25" thickTop="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="84"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" thickTop="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -6478,392 +6297,12 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:G18">
-      <formula1>"N,A,B, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:G19">
-      <formula1>"P,F, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:G17">
-      <formula1>"O, "</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 08j-BM/PM/FSOFT v1/0&amp;C社外秘&amp;R&amp;"Arial,Regular"&amp;10&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="6.75" style="84" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="92" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="84" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="85" customWidth="1"/>
-    <col min="5" max="5" width="1.75" style="84" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="2.875" style="84" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="84" customWidth="1"/>
-    <col min="9" max="10" width="2.875" style="84" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="2.875" style="84" customWidth="1"/>
-    <col min="20" max="20" width="2.875" style="84" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="84" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="84"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="82"/>
-      <c r="B1" s="83"/>
-    </row>
-    <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="208" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="210" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="211"/>
-      <c r="F2" s="209" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="212" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="215" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="87"/>
-    </row>
-    <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="215" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="223">
-        <v>300</v>
-      </c>
-      <c r="D4" s="224"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="220" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="225">
-        <v>29</v>
-      </c>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
-      <c r="V4" s="89"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="215" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="228" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="228"/>
-      <c r="S5" s="228"/>
-      <c r="T5" s="228"/>
-    </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="246" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="247"/>
-      <c r="C6" s="230" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="231"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="230" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="232"/>
-      <c r="L6" s="231" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="233" t="s">
-        <v>115</v>
-      </c>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="231"/>
-      <c r="S6" s="231"/>
-      <c r="T6" s="234"/>
-      <c r="V6" s="89"/>
-    </row>
-    <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235">
-        <f>COUNTIF(F18:HC18,"P")</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="237">
-        <f>COUNTIF(F18:HC18,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="237">
-        <f>SUM(O7,- A7,- C7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="90">
-        <f>COUNTIF(E17:HC17,"N")</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="90">
-        <f>COUNTIF(E17:HC17,"A")</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="90">
-        <f>COUNTIF(E17:HC17,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="240">
-        <f>COUNTA(E9:HF9)</f>
-        <v>1</v>
-      </c>
-      <c r="P7" s="238"/>
-      <c r="Q7" s="238"/>
-      <c r="R7" s="238"/>
-      <c r="S7" s="238"/>
-      <c r="T7" s="241"/>
-      <c r="U7" s="91"/>
-    </row>
-    <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
-    <row r="9" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="134" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="82"/>
-    </row>
-    <row r="10" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A10" s="135" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A11" s="136"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="99"/>
-      <c r="H11" s="89"/>
-    </row>
-    <row r="12" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A12" s="136"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="99"/>
-    </row>
-    <row r="13" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A13" s="136"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="99"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A14" s="136"/>
-      <c r="B14" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="99"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A15" s="136"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="97" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="89"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A16" s="136"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="99"/>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A17" s="137" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="242" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="242"/>
-      <c r="D17" s="242"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="124" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="139"/>
-      <c r="B18" s="243" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A19" s="139"/>
-      <c r="B19" s="244" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="244"/>
-      <c r="D19" s="244"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="127">
-        <v>39139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="11.25" thickBot="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="245" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="245"/>
-      <c r="D20" s="245"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
-    </row>
-    <row r="21" spans="1:6" ht="11.25" thickTop="1">
-      <c r="A21" s="92"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="84"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
@@ -6871,20 +6310,12 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F16">
@@ -6927,13 +6358,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="142" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="141"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="143"/>
@@ -6944,41 +6375,41 @@
       <c r="A4" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="183" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
+      <c r="B4" s="186" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
       <c r="E4" s="148" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="149" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
       <c r="A5" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="187" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="147" t="s">
-        <v>122</v>
-      </c>
       <c r="F5" s="149"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="186" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
+      <c r="B6" s="189" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="148" t="s">
         <v>6</v>
       </c>
@@ -6987,10 +6418,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="185"/>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
       <c r="E7" s="148" t="s">
         <v>7</v>
       </c>
@@ -7021,16 +6452,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="179" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="180" t="s">
         <v>123</v>
-      </c>
-      <c r="C11" s="180" t="s">
-        <v>124</v>
       </c>
       <c r="D11" s="172" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="180" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="173" t="s">
         <v>11</v>
@@ -7041,16 +6472,16 @@
         <v>42583</v>
       </c>
       <c r="B12" s="159" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="160" t="s">
         <v>126</v>
-      </c>
-      <c r="C12" s="160" t="s">
-        <v>127</v>
       </c>
       <c r="D12" s="160" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="161" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="162" t="s">
         <v>12</v>
@@ -7125,10 +6556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F11:F17"/>
+      <selection activeCell="F16" sqref="F11:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7162,40 +6593,40 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="188"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="191"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="192" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="194"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="188"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="189" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="191"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="192" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="194"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="197"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="79">
         <v>100</v>
       </c>
@@ -7204,18 +6635,18 @@
       <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="192" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="194"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="195" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -7263,153 +6694,143 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="13.5">
       <c r="A11" s="177">
-        <v>1</v>
-      </c>
-      <c r="B11" s="24"/>
+        <v>2</v>
+      </c>
+      <c r="B11" s="30"/>
       <c r="C11" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>131</v>
-      </c>
       <c r="E11" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>132</v>
+        <v>150</v>
+      </c>
+      <c r="F11" s="184" t="s">
+        <v>150</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="13.5">
       <c r="A12" s="177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>131</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>135</v>
+        <v>151</v>
+      </c>
+      <c r="F12" s="184" t="s">
+        <v>151</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="13.5">
       <c r="A13" s="177">
-        <v>3</v>
-      </c>
-      <c r="B13" s="30"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="24"/>
       <c r="C13" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>136</v>
+        <v>129</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>137</v>
+        <v>152</v>
+      </c>
+      <c r="F13" s="184" t="s">
+        <v>152</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="13.5">
       <c r="A14" s="177">
-        <v>4</v>
-      </c>
-      <c r="B14" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="30"/>
       <c r="C14" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>138</v>
-      </c>
       <c r="E14" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+      <c r="F14" s="184" t="s">
+        <v>153</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="13.5">
       <c r="A15" s="177">
-        <v>5</v>
-      </c>
-      <c r="B15" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="B15" s="24"/>
       <c r="C15" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>140</v>
+        <v>129</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>134</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="27"/>
+        <v>154</v>
+      </c>
+      <c r="F15" s="184" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="29"/>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="13.5">
       <c r="A16" s="177">
-        <v>6</v>
-      </c>
-      <c r="B16" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="30"/>
       <c r="C16" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>142</v>
+        <v>129</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>135</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>143</v>
+        <v>155</v>
+      </c>
+      <c r="F16" s="184" t="s">
+        <v>155</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="177">
-        <v>7</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>145</v>
-      </c>
+      <c r="A17" s="177"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="29"/>
       <c r="H17" s="28"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="177"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
     </row>
@@ -7424,24 +6845,14 @@
       <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="55"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="29"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="29"/>
       <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="56"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7455,13 +6866,12 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F11" location="generateTest!A1" display="Function14"/>
-    <hyperlink ref="F12" location="saveQuestion!A1" display="Function15"/>
-    <hyperlink ref="F13" location="findQuestionById!A1" display="Function16"/>
-    <hyperlink ref="F16" location="updateQuestion!A1" display="Function19"/>
-    <hyperlink ref="F14" location="findQuestionByCode!A1" display="Function17"/>
-    <hyperlink ref="F17" location="deleteQuestion!A1" display="Function20"/>
-    <hyperlink ref="F15" location="findAllQuestion!A1" display="Function18"/>
+    <hyperlink ref="F11" location="saveQuestion!A1" display="Function2"/>
+    <hyperlink ref="F12" location="findQuestionById!A1" display="Function3"/>
+    <hyperlink ref="F15" location="updateQuestion!A1" display="Function6"/>
+    <hyperlink ref="F13" location="findQuestionByCode!A1" display="Function4"/>
+    <hyperlink ref="F16" location="deleteQuestion!A1" display="Function7"/>
+    <hyperlink ref="F14" location="findAllQuestion!A1" display="Function5"/>
   </hyperlinks>
   <pageMargins left="0.65" right="0.65" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7473,9 +6883,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I27"/>
+  <dimension ref="A2:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -7493,17 +6903,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="35"/>
@@ -7520,72 +6930,72 @@
       <c r="A4" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="200" t="str">
+      <c r="B4" s="203" t="str">
         <f>表紙!B4</f>
         <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
       </c>
-      <c r="C4" s="200"/>
-      <c r="D4" s="201" t="s">
+      <c r="C4" s="203"/>
+      <c r="D4" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="201"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="200" t="str">
+      <c r="B5" s="203" t="str">
         <f>表紙!B5</f>
         <v>Veazy</v>
       </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="201" t="s">
+      <c r="C5" s="203"/>
+      <c r="D5" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="201"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="207"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="200" t="str">
+      <c r="B6" s="203" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>Veazy_Test Report_v1.0</v>
       </c>
-      <c r="C6" s="200"/>
-      <c r="D6" s="201" t="s">
+      <c r="C6" s="203"/>
+      <c r="D6" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="201"/>
-      <c r="F6" s="205">
+      <c r="E6" s="204"/>
+      <c r="F6" s="208">
         <v>42585</v>
       </c>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="207"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="210"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="38"/>
@@ -7649,257 +7059,232 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="13.5">
       <c r="A12" s="46">
         <v>1</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>132</v>
+      <c r="B12" s="184" t="s">
+        <v>150</v>
       </c>
       <c r="C12" s="47">
-        <f>generateTest!A6</f>
-        <v>27</v>
+        <f>saveQuestion!A6</f>
+        <v>3</v>
       </c>
       <c r="D12" s="47">
-        <f>generateTest!C6</f>
+        <f>saveQuestion!C6</f>
         <v>0</v>
       </c>
       <c r="E12" s="47">
-        <f>generateTest!F6</f>
+        <f>saveQuestion!F6</f>
         <v>0</v>
       </c>
       <c r="F12" s="48">
-        <f>generateTest!L6</f>
+        <f>saveQuestion!L6</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="47">
+        <f>saveQuestion!M6</f>
         <v>1</v>
       </c>
-      <c r="G12" s="47">
-        <f>generateTest!M6</f>
-        <v>26</v>
-      </c>
       <c r="H12" s="47">
-        <f>generateTest!N6</f>
+        <f>saveQuestion!N6</f>
         <v>0</v>
       </c>
       <c r="I12" s="47">
-        <f>generateTest!O6</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <f>saveQuestion!O6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.5">
       <c r="A13" s="46">
         <v>2</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>135</v>
+      <c r="B13" s="184" t="s">
+        <v>151</v>
       </c>
       <c r="C13" s="47">
-        <f>saveQuestion!A6</f>
+        <f>findQuestionById!A6</f>
         <v>3</v>
       </c>
       <c r="D13" s="47">
-        <f>saveQuestion!C6</f>
+        <f>findQuestionById!C6</f>
         <v>0</v>
       </c>
       <c r="E13" s="47">
-        <f>saveQuestion!F6</f>
+        <f>findQuestionById!F6</f>
         <v>0</v>
       </c>
       <c r="F13" s="48">
-        <f>saveQuestion!L6</f>
+        <f>findQuestionById!L6</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="47">
+        <f>findQuestionById!M6</f>
         <v>2</v>
       </c>
-      <c r="G13" s="47">
-        <f>saveQuestion!M6</f>
-        <v>1</v>
-      </c>
       <c r="H13" s="47">
-        <f>saveQuestion!N6</f>
+        <f>findQuestionById!N6</f>
         <v>0</v>
       </c>
       <c r="I13" s="47">
-        <f>saveQuestion!O6</f>
+        <f>findQuestionById!O6</f>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="13.5">
       <c r="A14" s="46">
         <v>3</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>137</v>
+      <c r="B14" s="184" t="s">
+        <v>152</v>
       </c>
       <c r="C14" s="47">
-        <f>findQuestionById!A6</f>
-        <v>3</v>
+        <f>findQuestionByCode!A7</f>
+        <v>2</v>
       </c>
       <c r="D14" s="47">
-        <f>findQuestionById!C6</f>
+        <f>findQuestionByCode!C7</f>
         <v>0</v>
       </c>
       <c r="E14" s="47">
-        <f>findQuestionById!F6</f>
+        <f>findQuestionByCode!F7</f>
         <v>0</v>
       </c>
-      <c r="F14" s="48">
-        <f>findQuestionById!L6</f>
+      <c r="F14" s="47">
+        <f>findQuestionByCode!L7</f>
         <v>1</v>
       </c>
       <c r="G14" s="47">
-        <f>findQuestionById!M6</f>
+        <f>findQuestionByCode!M7</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="47">
+        <f>findQuestionByCode!N7</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="47">
+        <f>findQuestionByCode!O7</f>
         <v>2</v>
       </c>
-      <c r="H14" s="47">
-        <f>findQuestionById!N6</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="47">
-        <f>findQuestionById!O6</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:9" ht="13.5">
       <c r="A15" s="46">
         <v>4</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>139</v>
+      <c r="B15" s="184" t="s">
+        <v>153</v>
       </c>
       <c r="C15" s="47">
-        <f>findQuestionByCode!A7</f>
-        <v>3</v>
+        <f>findAllQuestion!A7</f>
+        <v>1</v>
       </c>
       <c r="D15" s="47">
-        <f>findQuestionByCode!C7</f>
+        <f>findAllQuestion!C7</f>
         <v>0</v>
       </c>
       <c r="E15" s="47">
-        <f>findQuestionByCode!F7</f>
+        <f>findAllQuestion!F7</f>
         <v>0</v>
       </c>
       <c r="F15" s="47">
-        <f>findQuestionByCode!L7</f>
+        <f>findAllQuestion!L7</f>
         <v>1</v>
       </c>
       <c r="G15" s="47">
-        <f>findQuestionByCode!M7</f>
-        <v>2</v>
+        <f>findAllQuestion!M7</f>
+        <v>0</v>
       </c>
       <c r="H15" s="47">
-        <f>findQuestionByCode!N7</f>
+        <f>findAllQuestion!N7</f>
         <v>0</v>
       </c>
       <c r="I15" s="47">
-        <f>findQuestionByCode!O7</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <f>findAllQuestion!O7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.5">
       <c r="A16" s="46">
         <v>5</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>141</v>
+      <c r="B16" s="184" t="s">
+        <v>154</v>
       </c>
       <c r="C16" s="47">
-        <f>findAllQuestion!A7</f>
-        <v>2</v>
+        <f>updateQuestion!A7</f>
+        <v>3</v>
       </c>
       <c r="D16" s="47">
-        <f>findAllQuestion!C7</f>
+        <f>updateQuestion!C7</f>
         <v>0</v>
       </c>
       <c r="E16" s="47">
-        <f>findAllQuestion!F7</f>
+        <f>updateQuestion!F7</f>
         <v>0</v>
       </c>
       <c r="F16" s="47">
-        <f>findAllQuestion!L7</f>
-        <v>2</v>
+        <f>updateQuestion!L7</f>
+        <v>3</v>
       </c>
       <c r="G16" s="47">
-        <f>findAllQuestion!M7</f>
+        <f>updateQuestion!M7</f>
         <v>0</v>
       </c>
       <c r="H16" s="47">
-        <f>findAllQuestion!N7</f>
+        <f>updateQuestion!N7</f>
         <v>0</v>
       </c>
       <c r="I16" s="47">
-        <f>findAllQuestion!O7</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <f>updateQuestion!O7</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.5">
       <c r="A17" s="46">
         <v>6</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>143</v>
+      <c r="B17" s="184" t="s">
+        <v>155</v>
       </c>
       <c r="C17" s="47">
-        <f>updateQuestion!A7</f>
-        <v>2</v>
-      </c>
-      <c r="D17" s="47">
-        <f>updateQuestion!C7</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="47">
-        <f>updateQuestion!F7</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="47">
-        <f>updateQuestion!L7</f>
-        <v>2</v>
-      </c>
-      <c r="G17" s="47">
-        <f>updateQuestion!M7</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="47">
-        <f>updateQuestion!N7</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="47">
-        <f>updateQuestion!O7</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="46">
-        <v>7</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="47">
         <f>deleteQuestion!A7</f>
         <v>1</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D17" s="47">
         <f>deleteQuestion!C7</f>
         <v>0</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E17" s="47">
         <f>deleteQuestion!F7</f>
         <v>0</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F17" s="47">
         <f>deleteQuestion!L7</f>
         <v>1</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G17" s="47">
         <f>deleteQuestion!M7</f>
         <v>0</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H17" s="47">
         <f>deleteQuestion!N7</f>
         <v>0</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I17" s="47">
         <f>deleteQuestion!O7</f>
         <v>1</v>
       </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="46"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="46"/>
@@ -7912,70 +7297,77 @@
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="46"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5">
-      <c r="A21" s="49"/>
-      <c r="B21" s="57" t="s">
+    <row r="20" spans="1:9" ht="16.5">
+      <c r="A20" s="49"/>
+      <c r="B20" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="50">
-        <f t="shared" ref="C21:I21" si="0">SUM(C10:C20)</f>
-        <v>41</v>
-      </c>
-      <c r="D21" s="50">
+      <c r="C20" s="50">
+        <f t="shared" ref="C20:I20" si="0">SUM(C10:C19)</f>
+        <v>13</v>
+      </c>
+      <c r="D20" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E20" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F20" s="50">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G21" s="50">
+        <v>9</v>
+      </c>
+      <c r="G20" s="50">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="H21" s="50">
+        <v>4</v>
+      </c>
+      <c r="H20" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I20" s="50">
         <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="51"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="51"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+    </row>
+    <row r="22" spans="1:9" ht="15">
+      <c r="A22" s="40"/>
+      <c r="B22" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="62">
+        <f>(C20+D20)*100/(I20)</f>
+        <v>100</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="40"/>
-      <c r="B23" s="61" t="s">
-        <v>29</v>
+      <c r="B23" s="78" t="s">
+        <v>107</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="62">
-        <f>(C21+D21)*100/(I21)</f>
+        <f>C20*100/(I20)</f>
         <v>100</v>
       </c>
       <c r="E23" s="40" t="s">
@@ -7987,57 +7379,39 @@
       <c r="I23" s="54"/>
     </row>
     <row r="24" spans="1:9" ht="15">
-      <c r="A24" s="40"/>
       <c r="B24" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="62">
-        <f>C21*100/(I21)</f>
-        <v>100</v>
+        <f>F20*100/I20</f>
+        <v>69.230769230769226</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="B25" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="40"/>
+        <v>109</v>
+      </c>
       <c r="D25" s="62">
-        <f>F21*100/I21</f>
-        <v>24.390243902439025</v>
+        <f>G20*100/I20</f>
+        <v>30.76923076923077</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15">
-      <c r="B26" s="78" t="s">
-        <v>109</v>
+      <c r="B26" s="61" t="s">
+        <v>31</v>
       </c>
       <c r="D26" s="62">
-        <f>G21*100/I21</f>
-        <v>75.609756097560975</v>
+        <f>H20*100/I20</f>
+        <v>0</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15">
-      <c r="B27" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="62">
-        <f>H21*100/I21</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="40" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8057,13 +7431,12 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B12" location="generateTest!A1" display="Function14"/>
-    <hyperlink ref="B13" location="saveQuestion!A1" display="Function15"/>
-    <hyperlink ref="B14" location="findQuestionById!A1" display="Function16"/>
-    <hyperlink ref="B17" location="updateQuestion!A1" display="Function19"/>
-    <hyperlink ref="B15" location="findQuestionByCode!A1" display="Function17"/>
-    <hyperlink ref="B18" location="deleteQuestion!A1" display="Function20"/>
-    <hyperlink ref="B16" location="findAllQuestion!A1" display="Function18"/>
+    <hyperlink ref="B12" location="saveQuestion!A1" display="Function2"/>
+    <hyperlink ref="B13" location="findQuestionById!A1" display="Function3"/>
+    <hyperlink ref="B16" location="updateQuestion!A1" display="Function6"/>
+    <hyperlink ref="B14" location="findQuestionByCode!A1" display="Function4"/>
+    <hyperlink ref="B17" location="deleteQuestion!A1" display="Function7"/>
+    <hyperlink ref="B15" location="findAllQuestion!A1" display="Function5"/>
   </hyperlinks>
   <pageMargins left="0.65" right="0.65" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8076,1650 +7449,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF34"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="6.75" style="84" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="92" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="84" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="85" customWidth="1"/>
-    <col min="5" max="5" width="1.75" style="84" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="2.875" style="84" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="84" customWidth="1"/>
-    <col min="9" max="10" width="2.875" style="84" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="2.875" style="84" customWidth="1"/>
-    <col min="20" max="20" width="2.875" style="84" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="84" customWidth="1"/>
-    <col min="22" max="22" width="2.75" style="84" customWidth="1"/>
-    <col min="23" max="23" width="2.625" style="84" customWidth="1"/>
-    <col min="24" max="24" width="2.75" style="84" customWidth="1"/>
-    <col min="25" max="25" width="2.875" style="84" customWidth="1"/>
-    <col min="26" max="27" width="2.5" style="84" customWidth="1"/>
-    <col min="28" max="28" width="2.25" style="84" customWidth="1"/>
-    <col min="29" max="29" width="2.5" style="84" customWidth="1"/>
-    <col min="30" max="32" width="2.625" style="84" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="84"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="82"/>
-      <c r="B1" s="83"/>
-    </row>
-    <row r="2" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A2" s="208" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="210" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="211"/>
-      <c r="F2" s="209" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="212" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
-    </row>
-    <row r="3" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A3" s="215" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="87"/>
-    </row>
-    <row r="4" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A4" s="215" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="220" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="225">
-        <v>29</v>
-      </c>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
-      <c r="V4" s="89"/>
-    </row>
-    <row r="5" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A5" s="246" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="230" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="231"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="230" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="231"/>
-      <c r="J5" s="231"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="231"/>
-      <c r="N5" s="231"/>
-      <c r="O5" s="233" t="s">
-        <v>115</v>
-      </c>
-      <c r="P5" s="231"/>
-      <c r="Q5" s="231"/>
-      <c r="R5" s="231"/>
-      <c r="S5" s="231"/>
-      <c r="T5" s="234"/>
-      <c r="V5" s="89"/>
-    </row>
-    <row r="6" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="235">
-        <f>COUNTIF(F31:HC31,"P")</f>
-        <v>27</v>
-      </c>
-      <c r="B6" s="236"/>
-      <c r="C6" s="237">
-        <f>COUNTIF(F31:HC31,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="238"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="237">
-        <f>SUM(O6,- A6,- C6)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="239"/>
-      <c r="L6" s="90">
-        <f>COUNTIF(E30:HC30,"N")</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="90">
-        <f>COUNTIF(E30:HC30,"A")</f>
-        <v>26</v>
-      </c>
-      <c r="N6" s="90">
-        <f>COUNTIF(E30:HC30,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="240">
-        <f>COUNTA(E8:HF8)</f>
-        <v>27</v>
-      </c>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
-      <c r="R6" s="238"/>
-      <c r="S6" s="238"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="91"/>
-    </row>
-    <row r="7" spans="1:32" ht="11.25" thickBot="1"/>
-    <row r="8" spans="1:32" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="134" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="134" t="s">
-        <v>161</v>
-      </c>
-      <c r="J8" s="134" t="s">
-        <v>162</v>
-      </c>
-      <c r="K8" s="134" t="s">
-        <v>163</v>
-      </c>
-      <c r="L8" s="134" t="s">
-        <v>164</v>
-      </c>
-      <c r="M8" s="134" t="s">
-        <v>165</v>
-      </c>
-      <c r="N8" s="134" t="s">
-        <v>166</v>
-      </c>
-      <c r="O8" s="134" t="s">
-        <v>167</v>
-      </c>
-      <c r="P8" s="134" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q8" s="134" t="s">
-        <v>169</v>
-      </c>
-      <c r="R8" s="134" t="s">
-        <v>172</v>
-      </c>
-      <c r="S8" s="134" t="s">
-        <v>173</v>
-      </c>
-      <c r="T8" s="134" t="s">
-        <v>174</v>
-      </c>
-      <c r="U8" s="134" t="s">
-        <v>175</v>
-      </c>
-      <c r="V8" s="134" t="s">
-        <v>176</v>
-      </c>
-      <c r="W8" s="134" t="s">
-        <v>177</v>
-      </c>
-      <c r="X8" s="134" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y8" s="134" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z8" s="134" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA8" s="134" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB8" s="134" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC8" s="134" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD8" s="134" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE8" s="134" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF8" s="134" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A9" s="135" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-    </row>
-    <row r="10" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A10" s="136"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="100"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-    </row>
-    <row r="11" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A11" s="136"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-    </row>
-    <row r="12" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A12" s="136"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-    </row>
-    <row r="13" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A13" s="136"/>
-      <c r="B13" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-    </row>
-    <row r="14" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A14" s="136"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97">
-        <v>20</v>
-      </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-    </row>
-    <row r="15" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A15" s="136"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="97">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="R15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="S15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="T15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="U15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="V15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="W15" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="99"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="99"/>
-    </row>
-    <row r="16" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A16" s="136"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF16" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="99"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="99"/>
-    </row>
-    <row r="18" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97">
-        <v>1</v>
-      </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="P18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99"/>
-    </row>
-    <row r="19" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A19" s="136"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="103"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="S19" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="T19" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="99"/>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB19" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC19" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-    </row>
-    <row r="20" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A20" s="136"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="N20" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="V20" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="W20" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE20" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF20" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A21" s="136"/>
-      <c r="B21" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="99"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="99"/>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="99"/>
-    </row>
-    <row r="22" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A22" s="136"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97">
-        <v>1</v>
-      </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="99"/>
-      <c r="AD22" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="99"/>
-    </row>
-    <row r="23" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A23" s="136"/>
-      <c r="B23" s="249"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="251">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="103"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="99"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="99"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="N23" s="99"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="T23" s="99"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="W23" s="99"/>
-      <c r="X23" s="123"/>
-      <c r="Y23" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="123"/>
-      <c r="AB23" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="123"/>
-      <c r="AE23" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF23" s="99"/>
-    </row>
-    <row r="24" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A24" s="136"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="107"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="U24" s="108"/>
-      <c r="V24" s="108"/>
-      <c r="W24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="X24" s="108"/>
-      <c r="Y24" s="108"/>
-      <c r="Z24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA24" s="108"/>
-      <c r="AB24" s="108"/>
-      <c r="AC24" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD24" s="108"/>
-      <c r="AE24" s="108"/>
-      <c r="AF24" s="108" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A25" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="99"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="99"/>
-      <c r="AD25" s="99"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="99"/>
-    </row>
-    <row r="26" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A26" s="138"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="174"/>
-      <c r="F26" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="99"/>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="99"/>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="99"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="99"/>
-    </row>
-    <row r="27" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A27" s="138"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="116" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="M27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="N27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="O27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="P27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="R27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="S27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="T27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="U27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="V27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="W27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="X27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE27" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF27" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A28" s="138"/>
-      <c r="B28" s="119" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="252"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="253"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="123"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="123"/>
-      <c r="W28" s="123"/>
-      <c r="X28" s="123"/>
-      <c r="Y28" s="123"/>
-      <c r="Z28" s="123"/>
-      <c r="AA28" s="123"/>
-      <c r="AB28" s="123"/>
-      <c r="AC28" s="123"/>
-      <c r="AD28" s="123"/>
-      <c r="AE28" s="123"/>
-      <c r="AF28" s="123"/>
-    </row>
-    <row r="29" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A29" s="138"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="122"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="123"/>
-      <c r="W29" s="123"/>
-      <c r="X29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE29" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF29" s="123" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A30" s="137" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="242" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="L30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="N30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="O30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="P30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="R30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="S30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="T30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="U30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="V30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="W30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="X30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE30" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF30" s="124" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A31" s="139"/>
-      <c r="B31" s="243" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="243"/>
-      <c r="D31" s="243"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="K31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="L31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="M31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="N31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="O31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="P31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="R31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="S31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="T31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="U31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="V31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="W31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="X31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE31" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF31" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A32" s="139"/>
-      <c r="B32" s="244" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="244"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="127">
-        <v>39139</v>
-      </c>
-      <c r="G32" s="127">
-        <v>39139</v>
-      </c>
-      <c r="H32" s="127">
-        <v>39140</v>
-      </c>
-      <c r="I32" s="127">
-        <v>39141</v>
-      </c>
-      <c r="J32" s="127">
-        <v>39142</v>
-      </c>
-      <c r="K32" s="127">
-        <v>39143</v>
-      </c>
-      <c r="L32" s="127">
-        <v>39144</v>
-      </c>
-      <c r="M32" s="127">
-        <v>39145</v>
-      </c>
-      <c r="N32" s="127">
-        <v>39146</v>
-      </c>
-      <c r="O32" s="127">
-        <v>39147</v>
-      </c>
-      <c r="P32" s="127">
-        <v>39148</v>
-      </c>
-      <c r="Q32" s="127">
-        <v>39149</v>
-      </c>
-      <c r="R32" s="127">
-        <v>39150</v>
-      </c>
-      <c r="S32" s="127">
-        <v>39151</v>
-      </c>
-      <c r="T32" s="127">
-        <v>39152</v>
-      </c>
-      <c r="U32" s="127">
-        <v>39153</v>
-      </c>
-      <c r="V32" s="127">
-        <v>39154</v>
-      </c>
-      <c r="W32" s="127">
-        <v>39155</v>
-      </c>
-      <c r="X32" s="127">
-        <v>39156</v>
-      </c>
-      <c r="Y32" s="127">
-        <v>39157</v>
-      </c>
-      <c r="Z32" s="127">
-        <v>39158</v>
-      </c>
-      <c r="AA32" s="127">
-        <v>39159</v>
-      </c>
-      <c r="AB32" s="127">
-        <v>39160</v>
-      </c>
-      <c r="AC32" s="127">
-        <v>39161</v>
-      </c>
-      <c r="AD32" s="127">
-        <v>39162</v>
-      </c>
-      <c r="AE32" s="127">
-        <v>39163</v>
-      </c>
-      <c r="AF32" s="127">
-        <v>39164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="11.25" thickBot="1">
-      <c r="A33" s="140"/>
-      <c r="B33" s="245" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="245"/>
-      <c r="D33" s="245"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="129"/>
-      <c r="Q33" s="129"/>
-      <c r="R33" s="129"/>
-      <c r="S33" s="129"/>
-      <c r="T33" s="129"/>
-      <c r="U33" s="129"/>
-      <c r="V33" s="129"/>
-      <c r="W33" s="129"/>
-      <c r="X33" s="129"/>
-      <c r="Y33" s="129"/>
-      <c r="Z33" s="129"/>
-      <c r="AA33" s="129"/>
-      <c r="AB33" s="129"/>
-      <c r="AC33" s="129"/>
-      <c r="AD33" s="129"/>
-      <c r="AE33" s="129"/>
-      <c r="AF33" s="129"/>
-    </row>
-    <row r="34" spans="1:32" ht="11.25" thickTop="1">
-      <c r="A34" s="92"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="84"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31:AF31">
-      <formula1>"P,F, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:AF30">
-      <formula1>"N,A,B, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:AF29">
-      <formula1>"O, "</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 08j-BM/PM/FSOFT v1/0&amp;C社外秘&amp;R&amp;"Arial,Regular"&amp;10&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -9743,55 +7476,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="240" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="210" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="211"/>
-      <c r="F2" s="209" t="s">
+      <c r="B2" s="241"/>
+      <c r="C2" s="242" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="243"/>
+      <c r="F2" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="212" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="244" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="246"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
+      <c r="B3" s="231"/>
+      <c r="C3" s="247" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
+      <c r="D3" s="248"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="248"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -9800,109 +7533,109 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="230" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="224"/>
+      <c r="B4" s="231"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="234" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="225">
+      <c r="G4" s="235"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="237">
         <v>27</v>
       </c>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="239"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="230" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="231"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="230" t="s">
+      <c r="D5" s="218"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="231"/>
-      <c r="J5" s="231"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="220"/>
+      <c r="L5" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="231"/>
-      <c r="N5" s="231"/>
-      <c r="O5" s="233" t="s">
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="P5" s="231"/>
-      <c r="Q5" s="231"/>
-      <c r="R5" s="231"/>
-      <c r="S5" s="231"/>
-      <c r="T5" s="234"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="218"/>
+      <c r="S5" s="218"/>
+      <c r="T5" s="222"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="235">
-        <f>COUNTIF(F25:HE25,"P")</f>
+      <c r="A6" s="223">
+        <f>COUNTIF(F24:HE24,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="236"/>
-      <c r="C6" s="237">
-        <f>COUNTIF(F25:HE25,"F")</f>
+      <c r="B6" s="224"/>
+      <c r="C6" s="225">
+        <f>COUNTIF(F24:HE24,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="238"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="237">
+      <c r="D6" s="226"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="225">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="239"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="227"/>
       <c r="L6" s="90">
-        <f>COUNTIF(E24:HE24,"N")</f>
+        <f>COUNTIF(E23:HE23,"N")</f>
         <v>2</v>
       </c>
       <c r="M6" s="90">
-        <f>COUNTIF(E24:HE24,"A")</f>
+        <f>COUNTIF(E23:HE23,"A")</f>
         <v>1</v>
       </c>
       <c r="N6" s="90">
-        <f>COUNTIF(E24:HE24,"B")</f>
+        <f>COUNTIF(E23:HE23,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="240">
+      <c r="O6" s="228">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
-      <c r="R6" s="238"/>
-      <c r="S6" s="238"/>
-      <c r="T6" s="241"/>
+      <c r="P6" s="226"/>
+      <c r="Q6" s="226"/>
+      <c r="R6" s="226"/>
+      <c r="S6" s="226"/>
+      <c r="T6" s="229"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -9944,7 +7677,7 @@
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -9975,7 +7708,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
@@ -9989,7 +7722,7 @@
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
@@ -10004,7 +7737,7 @@
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99"/>
@@ -10068,7 +7801,7 @@
       <c r="B20" s="114"/>
       <c r="C20" s="115"/>
       <c r="D20" s="116" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E20" s="174"/>
       <c r="F20" s="99" t="s">
@@ -10081,133 +7814,106 @@
     </row>
     <row r="21" spans="1:9" ht="13.5" customHeight="1">
       <c r="A21" s="138"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="116" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99" t="s">
+      <c r="B21" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="182"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A22" s="138"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="121" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="122"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="99"/>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A22" s="138"/>
-      <c r="B22" s="119" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="252"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="253"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
       <c r="H22" s="123"/>
     </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A23" s="138"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="123"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A24" s="137" t="s">
+    <row r="23" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A23" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="242" t="s">
+      <c r="B23" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="242"/>
-      <c r="D24" s="242"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="124" t="s">
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="124" t="s">
+      <c r="G23" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="124" t="s">
+      <c r="H23" s="124" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A24" s="139"/>
+      <c r="B24" s="212" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="212"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="126" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1">
       <c r="A25" s="139"/>
-      <c r="B25" s="243" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="243"/>
-      <c r="D25" s="243"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A26" s="139"/>
-      <c r="B26" s="244" t="s">
+      <c r="B25" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="244"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="127">
+      <c r="C25" s="213"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="127">
         <v>39139</v>
       </c>
-      <c r="G26" s="127">
+      <c r="G25" s="127">
         <v>39139</v>
       </c>
-      <c r="H26" s="127">
+      <c r="H25" s="127">
         <v>39140</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="11.25" thickBot="1">
-      <c r="A27" s="140"/>
-      <c r="B27" s="245" t="s">
+    <row r="26" spans="1:9" ht="11.25" thickBot="1">
+      <c r="A26" s="140"/>
+      <c r="B26" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="245"/>
-      <c r="D27" s="245"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-    </row>
-    <row r="28" spans="1:9" ht="11.25" thickTop="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="84"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+    </row>
+    <row r="27" spans="1:9" ht="11.25" thickTop="1">
+      <c r="A27" s="92"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:K4"/>
@@ -10220,15 +7926,28 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:H24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:H23">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:H24">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H22">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -10241,12 +7960,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -10270,55 +7989,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="240" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="210" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="211"/>
-      <c r="F2" s="209" t="s">
+      <c r="B2" s="241"/>
+      <c r="C2" s="242" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="243"/>
+      <c r="F2" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="212" t="s">
-        <v>136</v>
-      </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="244" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="246"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
+      <c r="B3" s="231"/>
+      <c r="C3" s="247" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
+      <c r="D3" s="248"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="248"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -10327,109 +8046,109 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="230" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="224"/>
+      <c r="B4" s="231"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="234" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="225">
+      <c r="G4" s="235"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="237">
         <v>27</v>
       </c>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="239"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="230" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="231"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="230" t="s">
+      <c r="D5" s="218"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="231"/>
-      <c r="J5" s="231"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="220"/>
+      <c r="L5" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="231"/>
-      <c r="N5" s="231"/>
-      <c r="O5" s="233" t="s">
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="P5" s="231"/>
-      <c r="Q5" s="231"/>
-      <c r="R5" s="231"/>
-      <c r="S5" s="231"/>
-      <c r="T5" s="234"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="218"/>
+      <c r="S5" s="218"/>
+      <c r="T5" s="222"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="235">
-        <f>COUNTIF(F25:HE25,"P")</f>
+      <c r="A6" s="223">
+        <f>COUNTIF(F23:HE23,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="236"/>
-      <c r="C6" s="237">
-        <f>COUNTIF(F25:HE25,"F")</f>
+      <c r="B6" s="224"/>
+      <c r="C6" s="225">
+        <f>COUNTIF(F23:HE23,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="238"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="237">
+      <c r="D6" s="226"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="225">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="239"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="227"/>
       <c r="L6" s="90">
-        <f>COUNTIF(E24:HE24,"N")</f>
+        <f>COUNTIF(E22:HE22,"N")</f>
         <v>1</v>
       </c>
       <c r="M6" s="90">
-        <f>COUNTIF(E24:HE24,"A")</f>
+        <f>COUNTIF(E22:HE22,"A")</f>
         <v>2</v>
       </c>
       <c r="N6" s="90">
-        <f>COUNTIF(E24:HE24,"B")</f>
+        <f>COUNTIF(E22:HE22,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="240">
+      <c r="O6" s="228">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
-      <c r="R6" s="238"/>
-      <c r="S6" s="238"/>
-      <c r="T6" s="241"/>
+      <c r="P6" s="226"/>
+      <c r="Q6" s="226"/>
+      <c r="R6" s="226"/>
+      <c r="S6" s="226"/>
+      <c r="T6" s="229"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -10471,7 +8190,7 @@
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -10502,7 +8221,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
@@ -10516,7 +8235,7 @@
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
@@ -10594,7 +8313,7 @@
       <c r="B20" s="114"/>
       <c r="C20" s="115"/>
       <c r="D20" s="116" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E20" s="174"/>
       <c r="F20" s="99" t="s">
@@ -10603,7 +8322,7 @@
       <c r="G20" s="99"/>
       <c r="H20" s="99"/>
     </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1">
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
       <c r="A21" s="138"/>
       <c r="B21" s="114"/>
       <c r="C21" s="117"/>
@@ -10619,121 +8338,82 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A22" s="138"/>
-      <c r="B22" s="119" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="252"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="253"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A23" s="138"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="123"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A24" s="137" t="s">
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A22" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="242" t="s">
+      <c r="B22" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="242"/>
-      <c r="D24" s="242"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="124" t="s">
+      <c r="C22" s="211"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="124" t="s">
+      <c r="G22" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="124" t="s">
+      <c r="H22" s="124" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A25" s="139"/>
-      <c r="B25" s="243" t="s">
+    <row r="23" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A23" s="139"/>
+      <c r="B23" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="243"/>
-      <c r="D25" s="243"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="126" t="s">
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="126" t="s">
+      <c r="G23" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="126" t="s">
+      <c r="H23" s="126" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A26" s="139"/>
-      <c r="B26" s="244" t="s">
+    <row r="24" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A24" s="139"/>
+      <c r="B24" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="244"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="127">
+      <c r="C24" s="213"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="127">
         <v>39139</v>
       </c>
-      <c r="G26" s="127">
+      <c r="G24" s="127">
         <v>39139</v>
       </c>
-      <c r="H26" s="127">
+      <c r="H24" s="127">
         <v>39140</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="11.25" thickBot="1">
-      <c r="A27" s="140"/>
-      <c r="B27" s="245" t="s">
+    <row r="25" spans="1:8" ht="11.25" thickBot="1">
+      <c r="A25" s="140"/>
+      <c r="B25" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="245"/>
-      <c r="D27" s="245"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-    </row>
-    <row r="28" spans="1:8" ht="11.25" thickTop="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="84"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+    </row>
+    <row r="26" spans="1:8" ht="11.25" thickTop="1">
+      <c r="A26" s="92"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:K4"/>
@@ -10746,15 +8426,28 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:H23">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:H24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:H22">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H21">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -10767,12 +8460,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -10796,55 +8489,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="240" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="210" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="211"/>
-      <c r="F2" s="209" t="s">
+      <c r="B2" s="241"/>
+      <c r="C2" s="242" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="243"/>
+      <c r="F2" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="212" t="s">
-        <v>138</v>
-      </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="244" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="246"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
+      <c r="B3" s="231"/>
+      <c r="C3" s="247" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
+      <c r="D3" s="248"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="248"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -10853,137 +8546,137 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="230" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="223">
+      <c r="B4" s="231"/>
+      <c r="C4" s="232">
         <v>300</v>
       </c>
-      <c r="D4" s="224"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="234" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="225">
+      <c r="G4" s="235"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="237">
         <v>27</v>
       </c>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="239"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="230" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="228" t="s">
+      <c r="B5" s="231"/>
+      <c r="C5" s="250" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="228"/>
-      <c r="S5" s="228"/>
-      <c r="T5" s="228"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="250"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="246" t="s">
+      <c r="A6" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="247"/>
-      <c r="C6" s="230" t="s">
+      <c r="B6" s="216"/>
+      <c r="C6" s="217" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="231"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="230" t="s">
+      <c r="D6" s="218"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="232"/>
-      <c r="L6" s="231" t="s">
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="220"/>
+      <c r="L6" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="233" t="s">
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="231"/>
-      <c r="S6" s="231"/>
-      <c r="T6" s="234"/>
+      <c r="P6" s="218"/>
+      <c r="Q6" s="218"/>
+      <c r="R6" s="218"/>
+      <c r="S6" s="218"/>
+      <c r="T6" s="222"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235">
-        <f>COUNTIF(F26:HE26,"P")</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="237">
-        <f>COUNTIF(F26:HE26,"F")</f>
+      <c r="A7" s="223">
+        <f>COUNTIF(F22:HD22,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="224"/>
+      <c r="C7" s="225">
+        <f>COUNTIF(F22:HD22,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="237">
+      <c r="D7" s="226"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="225">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="239"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="227"/>
       <c r="L7" s="90">
-        <f>COUNTIF(E25:HE25,"N")</f>
+        <f>COUNTIF(E21:HD21,"N")</f>
         <v>1</v>
       </c>
       <c r="M7" s="90">
-        <f>COUNTIF(E25:HE25,"A")</f>
+        <f>COUNTIF(E21:HD21,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="90">
+        <f>COUNTIF(E21:HD21,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="228">
+        <f>COUNTA(E9:HG9)</f>
         <v>2</v>
       </c>
-      <c r="N7" s="90">
-        <f>COUNTIF(E25:HE25,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="240">
-        <f>COUNTA(E9:HH9)</f>
-        <v>3</v>
-      </c>
-      <c r="P7" s="238"/>
-      <c r="Q7" s="238"/>
-      <c r="R7" s="238"/>
-      <c r="S7" s="238"/>
-      <c r="T7" s="241"/>
+      <c r="P7" s="226"/>
+      <c r="Q7" s="226"/>
+      <c r="R7" s="226"/>
+      <c r="S7" s="226"/>
+      <c r="T7" s="229"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -10999,12 +8692,9 @@
       <c r="G9" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="82"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="82"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="135" t="s">
@@ -11018,20 +8708,18 @@
       <c r="E10" s="98"/>
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="J11" s="89"/>
+      <c r="I11" s="89"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
@@ -11041,7 +8729,6 @@
       <c r="E12" s="100"/>
       <c r="F12" s="99"/>
       <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
@@ -11051,249 +8738,160 @@
       <c r="E13" s="101"/>
       <c r="F13" s="99"/>
       <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C14" s="96"/>
       <c r="D14" s="97"/>
       <c r="E14" s="103"/>
       <c r="F14" s="99"/>
       <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99" t="s">
         <v>75</v>
       </c>
       <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="K15" s="89"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
       <c r="A16" s="136"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="176" t="s">
-        <v>36</v>
+      <c r="D16" s="97">
+        <v>-1</v>
       </c>
       <c r="E16" s="103"/>
       <c r="F16" s="99"/>
       <c r="G16" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="99"/>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+      <c r="H16" s="102"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
       <c r="A17" s="136"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A18" s="137" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A19" s="138"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="174"/>
+      <c r="F19" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="102"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="136"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A20" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-    </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A21" s="138"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="174"/>
-      <c r="F21" s="99" t="s">
+      <c r="G19" s="99"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="118"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A22" s="138"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="116" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="118"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A23" s="138"/>
-      <c r="B23" s="119" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="252"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A24" s="138"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="122"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="123"/>
-    </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A25" s="137" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A21" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="242" t="s">
+      <c r="B21" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="242"/>
-      <c r="D25" s="242"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="124" t="s">
+      <c r="C21" s="211"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="124" t="s">
+      <c r="G21" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="124" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A26" s="139"/>
-      <c r="B26" s="243" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A22" s="139"/>
+      <c r="B22" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="243"/>
-      <c r="D26" s="243"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126" t="s">
+      <c r="C22" s="212"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="126" t="s">
+      <c r="G22" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A27" s="139"/>
-      <c r="B27" s="244" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A23" s="139"/>
+      <c r="B23" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="244"/>
-      <c r="D27" s="244"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="127">
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="127">
         <v>39139</v>
       </c>
-      <c r="G27" s="127">
+      <c r="G23" s="127">
         <v>39139</v>
       </c>
-      <c r="H27" s="127">
-        <v>39140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="11.25" thickBot="1">
-      <c r="A28" s="140"/>
-      <c r="B28" s="245" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="11.25" thickBot="1">
+      <c r="A24" s="140"/>
+      <c r="B24" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="245"/>
-      <c r="D28" s="245"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-    </row>
-    <row r="29" spans="1:9" ht="11.25" thickTop="1">
-      <c r="A29" s="92"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="84"/>
+      <c r="C24" s="214"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+    </row>
+    <row r="25" spans="1:7" ht="11.25" thickTop="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -11302,15 +8900,34 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G21">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:H26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:G22">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:H24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:G20">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -11323,12 +8940,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -11352,55 +8969,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="240" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="210" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="211"/>
-      <c r="F2" s="209" t="s">
+      <c r="B2" s="241"/>
+      <c r="C2" s="242" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="243"/>
+      <c r="F2" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="212" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="244" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="246"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
+      <c r="B3" s="231"/>
+      <c r="C3" s="247" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
+      <c r="D3" s="248"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="248"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -11409,137 +9026,137 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="230" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="223">
+      <c r="B4" s="231"/>
+      <c r="C4" s="232">
         <v>300</v>
       </c>
-      <c r="D4" s="224"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="234" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="225">
+      <c r="G4" s="235"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="237">
         <v>28</v>
       </c>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="239"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="230" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="228" t="s">
+      <c r="B5" s="231"/>
+      <c r="C5" s="250" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="228"/>
-      <c r="S5" s="228"/>
-      <c r="T5" s="228"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="250"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="246" t="s">
+      <c r="A6" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="247"/>
-      <c r="C6" s="230" t="s">
+      <c r="B6" s="216"/>
+      <c r="C6" s="217" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="231"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="230" t="s">
+      <c r="D6" s="218"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="232"/>
-      <c r="L6" s="231" t="s">
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="220"/>
+      <c r="L6" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="233" t="s">
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="231"/>
-      <c r="S6" s="231"/>
-      <c r="T6" s="234"/>
+      <c r="P6" s="218"/>
+      <c r="Q6" s="218"/>
+      <c r="R6" s="218"/>
+      <c r="S6" s="218"/>
+      <c r="T6" s="222"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235">
-        <f>COUNTIF(F21:HD21,"P")</f>
-        <v>2</v>
-      </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="237">
-        <f>COUNTIF(F21:HD21,"F")</f>
+      <c r="A7" s="223">
+        <f>COUNTIF(F21:HC21,"P")</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="224"/>
+      <c r="C7" s="225">
+        <f>COUNTIF(F21:HC21,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="237">
+      <c r="D7" s="226"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="225">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="239"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="227"/>
       <c r="L7" s="90">
-        <f>COUNTIF(E20:HD20,"N")</f>
-        <v>2</v>
+        <f>COUNTIF(E20:HC20,"N")</f>
+        <v>1</v>
       </c>
       <c r="M7" s="90">
-        <f>COUNTIF(E20:HD20,"A")</f>
+        <f>COUNTIF(E20:HC20,"A")</f>
         <v>0</v>
       </c>
       <c r="N7" s="90">
-        <f>COUNTIF(E20:HD20,"B")</f>
+        <f>COUNTIF(E20:HC20,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="240">
-        <f>COUNTA(E9:HG9)</f>
-        <v>2</v>
-      </c>
-      <c r="P7" s="238"/>
-      <c r="Q7" s="238"/>
-      <c r="R7" s="238"/>
-      <c r="S7" s="238"/>
-      <c r="T7" s="241"/>
+      <c r="O7" s="228">
+        <f>COUNTA(E9:HF9)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="226"/>
+      <c r="Q7" s="226"/>
+      <c r="R7" s="226"/>
+      <c r="S7" s="226"/>
+      <c r="T7" s="229"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -11552,12 +9169,9 @@
       <c r="F9" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="82"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="135" t="s">
@@ -11570,45 +9184,33 @@
       <c r="D10" s="97"/>
       <c r="E10" s="98"/>
       <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="I11" s="89"/>
+      <c r="H11" s="89"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
       <c r="B12" s="95"/>
       <c r="C12" s="96"/>
-      <c r="D12" s="97" t="s">
-        <v>155</v>
-      </c>
+      <c r="D12" s="97"/>
       <c r="E12" s="100"/>
-      <c r="F12" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="99"/>
+      <c r="F12" s="99"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95"/>
       <c r="C13" s="96"/>
-      <c r="D13" s="97" t="s">
-        <v>156</v>
-      </c>
+      <c r="D13" s="97"/>
       <c r="E13" s="101"/>
       <c r="F13" s="99"/>
-      <c r="G13" s="99" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
@@ -11617,7 +9219,6 @@
       <c r="D14" s="97"/>
       <c r="E14" s="103"/>
       <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A15" s="136"/>
@@ -11626,7 +9227,6 @@
       <c r="D15" s="106"/>
       <c r="E15" s="107"/>
       <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1" thickTop="1">
       <c r="A16" s="137" t="s">
@@ -11639,102 +9239,84 @@
       <c r="D16" s="111"/>
       <c r="E16" s="112"/>
       <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.5" customHeight="1">
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1">
       <c r="A17" s="138"/>
       <c r="B17" s="114"/>
       <c r="C17" s="115"/>
       <c r="D17" s="116" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E17" s="174"/>
       <c r="F17" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="99"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" customHeight="1">
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
       <c r="A18" s="138"/>
       <c r="B18" s="114"/>
       <c r="C18" s="117"/>
-      <c r="D18" s="116" t="s">
-        <v>36</v>
-      </c>
+      <c r="D18" s="116"/>
       <c r="E18" s="118"/>
       <c r="F18" s="99"/>
-      <c r="G18" s="99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="A19" s="138"/>
       <c r="B19" s="119"/>
       <c r="C19" s="120"/>
       <c r="D19" s="121"/>
       <c r="E19" s="122"/>
       <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" thickTop="1">
       <c r="A20" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="242"/>
-      <c r="D20" s="242"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="175"/>
       <c r="F20" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="124" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.5" customHeight="1">
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1">
       <c r="A21" s="139"/>
-      <c r="B21" s="243" t="s">
+      <c r="B21" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="243"/>
-      <c r="D21" s="243"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="212"/>
       <c r="E21" s="125"/>
       <c r="F21" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" customHeight="1">
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1">
       <c r="A22" s="139"/>
-      <c r="B22" s="244" t="s">
+      <c r="B22" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="244"/>
-      <c r="D22" s="244"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="213"/>
       <c r="E22" s="118"/>
       <c r="F22" s="127">
         <v>39139</v>
       </c>
-      <c r="G22" s="127">
-        <v>39139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="11.25" thickBot="1">
+    </row>
+    <row r="23" spans="1:6" ht="11.25" thickBot="1">
       <c r="A23" s="140"/>
-      <c r="B23" s="245" t="s">
+      <c r="B23" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="245"/>
-      <c r="D23" s="245"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="214"/>
       <c r="E23" s="128"/>
       <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-    </row>
-    <row r="24" spans="1:7" ht="11.25" thickTop="1">
+    </row>
+    <row r="24" spans="1:6" ht="11.25" thickTop="1">
       <c r="A24" s="92"/>
       <c r="B24" s="84"/>
       <c r="C24" s="85"/>
@@ -11742,25 +9324,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -11769,15 +9332,500 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F19">
+      <formula1>"O, "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 08j-BM/PM/FSOFT v1/0&amp;C社外秘&amp;R&amp;"Arial,Regular"&amp;10&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="84" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="92" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="84" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="85" customWidth="1"/>
+    <col min="5" max="5" width="1.75" style="84" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="2.875" style="84" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="84" customWidth="1"/>
+    <col min="9" max="10" width="2.875" style="84" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="2.875" style="84" customWidth="1"/>
+    <col min="20" max="20" width="2.875" style="84" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.875" style="84" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="84"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="82"/>
+      <c r="B1" s="83"/>
+    </row>
+    <row r="2" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A2" s="240" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="241"/>
+      <c r="C2" s="242" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="243"/>
+      <c r="F2" s="241" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="244" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="246"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="230" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="231"/>
+      <c r="C3" s="247" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="248"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="234" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="248"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="87"/>
+    </row>
+    <row r="4" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A4" s="230" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="231"/>
+      <c r="C4" s="232">
+        <v>300</v>
+      </c>
+      <c r="D4" s="233"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="234" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="235"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="237">
+        <v>28</v>
+      </c>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="239"/>
+      <c r="V4" s="89"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A5" s="230" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="231"/>
+      <c r="C5" s="250" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="250"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A6" s="215" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="216"/>
+      <c r="C6" s="217" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="218"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="217" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="220"/>
+      <c r="L6" s="218" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="221" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" s="218"/>
+      <c r="Q6" s="218"/>
+      <c r="R6" s="218"/>
+      <c r="S6" s="218"/>
+      <c r="T6" s="222"/>
+      <c r="V6" s="89"/>
+    </row>
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="223">
+        <f>COUNTIF(F19:HD19,"P")</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="224"/>
+      <c r="C7" s="225">
+        <f>COUNTIF(F19:HD19,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="226"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="225">
+        <f>SUM(O7,- A7,- C7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="227"/>
+      <c r="L7" s="90">
+        <f>COUNTIF(E18:HD18,"N")</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="90">
+        <f>COUNTIF(E18:HD18,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="90">
+        <f>COUNTIF(E18:HD18,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="228">
+        <f>COUNTA(E9:HG9)</f>
+        <v>3</v>
+      </c>
+      <c r="P7" s="226"/>
+      <c r="Q7" s="226"/>
+      <c r="R7" s="226"/>
+      <c r="S7" s="226"/>
+      <c r="T7" s="229"/>
+      <c r="U7" s="91"/>
+    </row>
+    <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
+    <row r="9" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="134" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="94"/>
+      <c r="J9" s="82"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A10" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A11" s="136"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="100"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="89"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A12" s="136"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A13" s="136"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A14" s="136"/>
+      <c r="B14" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A15" s="136"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="103"/>
+      <c r="F15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="99"/>
+      <c r="J15" s="89"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A16" s="136"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="176" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="103"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A17" s="136"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="103"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="99"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A18" s="137" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="211" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="211"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="124" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A19" s="139"/>
+      <c r="B19" s="212" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A20" s="139"/>
+      <c r="B20" s="213" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="127">
+        <v>39139</v>
+      </c>
+      <c r="G20" s="127">
+        <v>39139</v>
+      </c>
+      <c r="H20" s="127">
+        <v>39140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="11.25" thickBot="1">
+      <c r="A21" s="140"/>
+      <c r="B21" s="214" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+    </row>
+    <row r="22" spans="1:8" ht="11.25" thickTop="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18">
+      <formula1>"N,A,B, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:H19">
+      <formula1>"P,F, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:H17">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
